--- a/data/all_data_df.xlsx
+++ b/data/all_data_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ157"/>
+  <dimension ref="A1:AQ157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,6 +614,41 @@
           <t>num_funded_teams</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>num_teams_numeric</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>num_funded_teams_numeric</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>meeting_length_numeric</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>percent_time_screenshare_numeric</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>num_members_numeric</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>has_teams</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>has_funded_teams</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -728,6 +763,27 @@
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
+      <c r="AK2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>770</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -842,6 +898,27 @@
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
+      <c r="AK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1819</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -956,6 +1033,27 @@
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2236</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -987,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="n">
         <v>8</v>
@@ -1068,6 +1166,27 @@
         <v>2</v>
       </c>
       <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1795</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1184,6 +1303,27 @@
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2165</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1298,6 +1438,27 @@
       <c r="AJ7" t="n">
         <v>1</v>
       </c>
+      <c r="AK7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2313</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>69.95244271508862</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1412,6 +1573,27 @@
       <c r="AJ8" t="n">
         <v>1</v>
       </c>
+      <c r="AK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2890</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1526,6 +1708,27 @@
       <c r="AJ9" t="n">
         <v>2</v>
       </c>
+      <c r="AK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2836</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>98.58956276445699</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1640,6 +1843,27 @@
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
+      <c r="AK10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1835</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1754,6 +1978,27 @@
       <c r="AJ11" t="n">
         <v>1</v>
       </c>
+      <c r="AK11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1619</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>15.75046324891909</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1868,6 +2113,27 @@
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
+      <c r="AK12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1637</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>12.82834453268173</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1982,6 +2248,27 @@
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
+      <c r="AK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2321</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>9.43558810857389</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2096,6 +2383,27 @@
       <c r="AJ14" t="n">
         <v>1</v>
       </c>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2210,6 +2518,27 @@
       <c r="AJ15" t="n">
         <v>2</v>
       </c>
+      <c r="AK15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>21.64556962025316</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2324,6 +2653,27 @@
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
+      <c r="AK16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1873</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>39.1350774159103</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2438,6 +2788,27 @@
       <c r="AJ17" t="n">
         <v>1</v>
       </c>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>606</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2469,7 +2840,7 @@
         <v>44</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" t="n">
         <v>21</v>
@@ -2496,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2511,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
         <v>8</v>
@@ -2550,6 +2921,27 @@
         <v>2</v>
       </c>
       <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>4067</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>11.33513646422424</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2586,7 +2978,7 @@
         <v>54</v>
       </c>
       <c r="J19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" t="n">
         <v>29</v>
@@ -2664,6 +3056,27 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>3347</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>15.62593367194502</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2694,7 +3107,7 @@
         <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" t="n">
         <v>27</v>
@@ -2778,6 +3191,27 @@
         <v>1</v>
       </c>
       <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>3649</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>21.89640997533571</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S21" t="n">
         <v>24</v>
@@ -2892,6 +3326,27 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2949</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>26.34791454730417</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,7 +3362,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
         <v>3513</v>
@@ -2922,22 +3377,22 @@
         <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J22" t="n">
         <v>16</v>
       </c>
       <c r="K22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" t="n">
         <v>18</v>
       </c>
       <c r="M22" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -3006,6 +3461,27 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>3513</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>21.94705380017079</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3021,7 +3497,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
         <v>3230</v>
@@ -3120,6 +3596,27 @@
         <v>2</v>
       </c>
       <c r="AJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>3230</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3135,7 +3632,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
         <v>3172</v>
@@ -3235,6 +3732,27 @@
       </c>
       <c r="AJ24" t="n">
         <v>2</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>3172</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>8.764186633039092</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3264,7 +3782,7 @@
         <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" t="n">
         <v>50</v>
@@ -3288,7 +3806,7 @@
         <v>10</v>
       </c>
       <c r="P25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q25" t="n">
         <v>7</v>
@@ -3348,6 +3866,27 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>3371</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>7.475526549985167</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3381,16 +3920,16 @@
         <v>52</v>
       </c>
       <c r="I26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26" t="n">
         <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
         <v>31</v>
@@ -3462,6 +4001,27 @@
         <v>1</v>
       </c>
       <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2749</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>9.3488541287741</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3477,7 +4037,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
         <v>3297</v>
@@ -3495,7 +4055,7 @@
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J27" t="n">
         <v>20</v>
@@ -3576,6 +4136,27 @@
         <v>1</v>
       </c>
       <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>3297</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>7.825295723384896</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3591,7 +4172,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
         <v>3033</v>
@@ -3609,7 +4190,7 @@
         <v>43</v>
       </c>
       <c r="I28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J28" t="n">
         <v>14</v>
@@ -3639,7 +4220,7 @@
         <v>27</v>
       </c>
       <c r="S28" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T28" t="n">
         <v>2</v>
@@ -3675,7 +4256,7 @@
         <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF28" t="n">
         <v>1</v>
@@ -3690,6 +4271,27 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>3033</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3723,7 +4325,7 @@
         <v>41</v>
       </c>
       <c r="I29" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
         <v>9</v>
@@ -3732,7 +4334,7 @@
         <v>28</v>
       </c>
       <c r="L29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M29" t="n">
         <v>29</v>
@@ -3753,7 +4355,7 @@
         <v>21</v>
       </c>
       <c r="S29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -3789,7 +4391,7 @@
         <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
         <v>1</v>
@@ -3804,6 +4406,27 @@
         <v>2</v>
       </c>
       <c r="AJ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>3441</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>6.480674222609705</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,6 +4543,27 @@
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
+      <c r="AK30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>3579</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.93964794635373</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3933,7 +4577,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
         <v>3694</v>
@@ -3978,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S31" t="n">
         <v>18</v>
@@ -4032,6 +4676,27 @@
         <v>1</v>
       </c>
       <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>3694</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>5.224688684353005</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4065,7 +4730,7 @@
         <v>62</v>
       </c>
       <c r="I32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J32" t="n">
         <v>23</v>
@@ -4095,7 +4760,7 @@
         <v>13</v>
       </c>
       <c r="S32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T32" t="n">
         <v>4</v>
@@ -4131,7 +4796,7 @@
         <v>6</v>
       </c>
       <c r="AE32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
         <v>1</v>
@@ -4146,6 +4811,27 @@
         <v>3</v>
       </c>
       <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>4227</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>5.086349656967116</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4188,7 +4874,7 @@
         <v>18</v>
       </c>
       <c r="L33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33" t="n">
         <v>32</v>
@@ -4260,6 +4946,27 @@
         <v>3</v>
       </c>
       <c r="AJ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>3480</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.9195402298850575</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4376,6 +5083,27 @@
       <c r="AJ34" t="n">
         <v>1</v>
       </c>
+      <c r="AK34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>3755</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.607190412782956</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4389,7 +5117,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
         <v>3687</v>
@@ -4407,7 +5135,7 @@
         <v>57</v>
       </c>
       <c r="I35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J35" t="n">
         <v>20</v>
@@ -4488,6 +5216,27 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>3687</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5.804176837537294</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4503,7 +5252,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
         <v>3427</v>
@@ -4602,6 +5351,27 @@
         <v>3</v>
       </c>
       <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>3427</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>16.10738255033557</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4617,7 +5387,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
         <v>3237</v>
@@ -4716,6 +5486,27 @@
         <v>2</v>
       </c>
       <c r="AJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>3237</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.09267840593141798</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4731,7 +5522,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
         <v>4107</v>
@@ -4761,7 +5552,7 @@
         <v>17</v>
       </c>
       <c r="M38" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N38" t="n">
         <v>13</v>
@@ -4830,6 +5621,27 @@
         <v>2</v>
       </c>
       <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>4107</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>7.523739956172388</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4845,7 +5657,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
         <v>2959</v>
@@ -4860,7 +5672,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="n">
         <v>27</v>
@@ -4944,6 +5756,27 @@
         <v>3</v>
       </c>
       <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2959</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>15.91753970936127</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5060,6 +5893,27 @@
       <c r="AJ40" t="n">
         <v>0</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2042</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>96.42507345739472</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5073,7 +5927,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
         <v>3932</v>
@@ -5088,7 +5942,7 @@
         <v>8</v>
       </c>
       <c r="H41" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I41" t="n">
         <v>32</v>
@@ -5172,6 +6026,27 @@
         <v>2</v>
       </c>
       <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>3932</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>6.637843336724314</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5232,10 +6107,10 @@
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S42" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -5286,6 +6161,27 @@
         <v>1</v>
       </c>
       <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>3511</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>6.493876388493307</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5402,6 +6298,27 @@
       <c r="AJ43" t="n">
         <v>0</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5516,6 +6433,27 @@
       <c r="AJ44" t="n">
         <v>0</v>
       </c>
+      <c r="AK44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>3247</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>2.925777640899291</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5630,6 +6568,27 @@
       <c r="AJ45" t="n">
         <v>0</v>
       </c>
+      <c r="AK45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>3107</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>22.65851303508207</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5643,7 +6602,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>3152</v>
@@ -5661,7 +6620,7 @@
         <v>40</v>
       </c>
       <c r="I46" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J46" t="n">
         <v>12</v>
@@ -5691,7 +6650,7 @@
         <v>14</v>
       </c>
       <c r="S46" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T46" t="n">
         <v>3</v>
@@ -5727,7 +6686,7 @@
         <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF46" t="n">
         <v>2</v>
@@ -5742,6 +6701,27 @@
         <v>2</v>
       </c>
       <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>3152</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.983502538071066</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5858,6 +6838,27 @@
       <c r="AJ47" t="n">
         <v>1</v>
       </c>
+      <c r="AK47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>3396</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>23.55712603062426</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5871,7 +6872,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
         <v>3013</v>
@@ -5889,7 +6890,7 @@
         <v>45</v>
       </c>
       <c r="I48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J48" t="n">
         <v>15</v>
@@ -5970,6 +6971,27 @@
         <v>2</v>
       </c>
       <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>3013</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>96.84699634915367</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6012,7 +7034,7 @@
         <v>17</v>
       </c>
       <c r="L49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M49" t="n">
         <v>22</v>
@@ -6084,6 +7106,27 @@
         <v>3</v>
       </c>
       <c r="AJ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>3107</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>7.080785323463147</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6132,7 +7175,7 @@
         <v>32</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O50" t="n">
         <v>11</v>
@@ -6168,7 +7211,7 @@
         <v>9</v>
       </c>
       <c r="Z50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA50" t="n">
         <v>4</v>
@@ -6198,6 +7241,27 @@
         <v>1</v>
       </c>
       <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>3445</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6237,7 +7301,7 @@
         <v>20</v>
       </c>
       <c r="K51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L51" t="n">
         <v>7</v>
@@ -6258,7 +7322,7 @@
         <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S51" t="n">
         <v>27</v>
@@ -6312,6 +7376,27 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>3256</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>10.07371007371007</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6357,7 +7442,7 @@
         <v>15</v>
       </c>
       <c r="M52" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N52" t="n">
         <v>3</v>
@@ -6366,7 +7451,7 @@
         <v>3</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
         <v>8</v>
@@ -6402,7 +7487,7 @@
         <v>3</v>
       </c>
       <c r="AB52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC52" t="n">
         <v>7</v>
@@ -6426,6 +7511,27 @@
         <v>0</v>
       </c>
       <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>3815</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>72.11009174311927</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6459,7 +7565,7 @@
         <v>45</v>
       </c>
       <c r="I53" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J53" t="n">
         <v>21</v>
@@ -6471,13 +7577,13 @@
         <v>14</v>
       </c>
       <c r="M53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N53" t="n">
         <v>6</v>
       </c>
       <c r="O53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6540,6 +7646,27 @@
         <v>0</v>
       </c>
       <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>3862</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>13.01139306059037</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6603,7 +7730,7 @@
         <v>17</v>
       </c>
       <c r="S54" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T54" t="n">
         <v>3</v>
@@ -6654,6 +7781,27 @@
         <v>0</v>
       </c>
       <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>3163</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>17.07239962061334</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6687,7 +7835,7 @@
         <v>32</v>
       </c>
       <c r="I55" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J55" t="n">
         <v>14</v>
@@ -6768,6 +7916,27 @@
         <v>2</v>
       </c>
       <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2663</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0.6383777694329703</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,7 +7973,7 @@
         <v>22</v>
       </c>
       <c r="J56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K56" t="n">
         <v>4</v>
@@ -6882,6 +8051,27 @@
         <v>2</v>
       </c>
       <c r="AJ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2953</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>14.69691838807992</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6915,7 +8105,7 @@
         <v>52</v>
       </c>
       <c r="I57" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J57" t="n">
         <v>25</v>
@@ -6996,6 +8186,27 @@
         <v>1</v>
       </c>
       <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>3727</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7112,6 +8323,27 @@
       <c r="AJ58" t="n">
         <v>0</v>
       </c>
+      <c r="AK58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>3576</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>38.53467561521253</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7140,10 +8372,10 @@
         <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I59" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J59" t="n">
         <v>15</v>
@@ -7155,7 +8387,7 @@
         <v>22</v>
       </c>
       <c r="M59" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
@@ -7224,6 +8456,27 @@
         <v>0</v>
       </c>
       <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>3059</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>21.96796338672769</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7257,7 +8510,7 @@
         <v>47</v>
       </c>
       <c r="I60" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J60" t="n">
         <v>15</v>
@@ -7284,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S60" t="n">
         <v>30</v>
@@ -7338,6 +8591,27 @@
         <v>2</v>
       </c>
       <c r="AJ60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>3168</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>8.270202020202021</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7368,7 +8642,7 @@
         <v>18</v>
       </c>
       <c r="H61" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I61" t="n">
         <v>52</v>
@@ -7452,6 +8726,27 @@
         <v>2</v>
       </c>
       <c r="AJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>3534</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>8.970005659309564</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7568,6 +8863,27 @@
       <c r="AJ62" t="n">
         <v>0</v>
       </c>
+      <c r="AK62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>3449</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2.290518991011888</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7596,10 +8912,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I63" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J63" t="n">
         <v>15</v>
@@ -7626,7 +8942,7 @@
         <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S63" t="n">
         <v>36</v>
@@ -7680,6 +8996,27 @@
         <v>1</v>
       </c>
       <c r="AJ63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>3770</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>19.76127320954907</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7707,13 +9044,13 @@
         <v>24.72113355441664</v>
       </c>
       <c r="G64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H64" t="n">
         <v>70</v>
       </c>
       <c r="I64" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64" t="n">
         <v>6</v>
@@ -7794,6 +9131,27 @@
         <v>0</v>
       </c>
       <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>3317</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>24.72113355441664</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7824,7 +9182,7 @@
         <v>10</v>
       </c>
       <c r="H65" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I65" t="n">
         <v>51</v>
@@ -7839,7 +9197,7 @@
         <v>11</v>
       </c>
       <c r="M65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N65" t="n">
         <v>2</v>
@@ -7908,6 +9266,27 @@
         <v>0</v>
       </c>
       <c r="AJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>3331</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0.6904833383368358</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7938,7 +9317,7 @@
         <v>13</v>
       </c>
       <c r="H66" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I66" t="n">
         <v>34</v>
@@ -8023,6 +9402,27 @@
       </c>
       <c r="AJ66" t="n">
         <v>2</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>3265</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>26.4624808575804</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -8138,6 +9538,27 @@
       <c r="AJ67" t="n">
         <v>0</v>
       </c>
+      <c r="AK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8252,6 +9673,27 @@
       <c r="AJ68" t="n">
         <v>0</v>
       </c>
+      <c r="AK68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2964</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>35.1889338731444</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8265,7 +9707,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
         <v>2108</v>
@@ -8283,7 +9725,7 @@
         <v>30</v>
       </c>
       <c r="I69" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J69" t="n">
         <v>3</v>
@@ -8364,6 +9806,27 @@
         <v>1</v>
       </c>
       <c r="AJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2108</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>45.63567362428842</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8394,13 +9857,13 @@
         <v>15</v>
       </c>
       <c r="H70" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I70" t="n">
         <v>26</v>
       </c>
       <c r="J70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K70" t="n">
         <v>16</v>
@@ -8478,6 +9941,27 @@
         <v>0</v>
       </c>
       <c r="AJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2945</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>5.093378607809847</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8493,7 +9977,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" t="n">
         <v>3279</v>
@@ -8562,7 +10046,7 @@
         <v>6</v>
       </c>
       <c r="Z71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA71" t="n">
         <v>5</v>
@@ -8592,6 +10076,27 @@
         <v>0</v>
       </c>
       <c r="AJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>3279</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>52.02805733455321</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8708,6 +10213,27 @@
       <c r="AJ72" t="n">
         <v>1</v>
       </c>
+      <c r="AK72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>4384</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8721,7 +10247,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
         <v>2434</v>
@@ -8820,6 +10346,27 @@
         <v>1</v>
       </c>
       <c r="AJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>2434</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>2.29252259654889</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8853,7 +10400,7 @@
         <v>86</v>
       </c>
       <c r="I74" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J74" t="n">
         <v>22</v>
@@ -8935,6 +10482,27 @@
       </c>
       <c r="AJ74" t="n">
         <v>2</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>5112</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>31.8075117370892</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -8949,7 +10517,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D75" t="n">
         <v>3249</v>
@@ -8967,13 +10535,13 @@
         <v>38</v>
       </c>
       <c r="I75" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J75" t="n">
         <v>14</v>
       </c>
       <c r="K75" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L75" t="n">
         <v>16</v>
@@ -8994,7 +10562,7 @@
         <v>4</v>
       </c>
       <c r="R75" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S75" t="n">
         <v>31</v>
@@ -9009,19 +10577,19 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z75" t="n">
         <v>1</v>
       </c>
       <c r="AA75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB75" t="n">
         <v>2</v>
@@ -9048,6 +10616,27 @@
         <v>1</v>
       </c>
       <c r="AJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>3249</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>11.14188981224992</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9081,7 +10670,7 @@
         <v>38</v>
       </c>
       <c r="I76" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J76" t="n">
         <v>11</v>
@@ -9162,6 +10751,27 @@
         <v>1</v>
       </c>
       <c r="AJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>2752</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>16.96947674418605</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9201,10 +10811,10 @@
         <v>14</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M77" t="n">
         <v>29</v>
@@ -9240,7 +10850,7 @@
         <v>8</v>
       </c>
       <c r="X77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y77" t="n">
         <v>7</v>
@@ -9276,6 +10886,27 @@
         <v>2</v>
       </c>
       <c r="AJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>3280</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>21.12804878048781</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9339,7 +10970,7 @@
         <v>16</v>
       </c>
       <c r="S78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T78" t="n">
         <v>2</v>
@@ -9390,6 +11021,27 @@
         <v>1</v>
       </c>
       <c r="AJ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>3339</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>13.50703803533992</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9506,6 +11158,27 @@
       <c r="AJ79" t="n">
         <v>0</v>
       </c>
+      <c r="AK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>337</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9519,7 +11192,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D80" t="n">
         <v>7541</v>
@@ -9534,7 +11207,7 @@
         <v>22</v>
       </c>
       <c r="H80" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I80" t="n">
         <v>71</v>
@@ -9555,7 +11228,7 @@
         <v>6</v>
       </c>
       <c r="O80" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -9619,6 +11292,27 @@
       </c>
       <c r="AJ80" t="n">
         <v>5</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>7541</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>7.837156875745922</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -9648,7 +11342,7 @@
         <v>20</v>
       </c>
       <c r="H81" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I81" t="n">
         <v>39</v>
@@ -9681,7 +11375,7 @@
         <v>19</v>
       </c>
       <c r="S81" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T81" t="n">
         <v>2</v>
@@ -9717,7 +11411,7 @@
         <v>6</v>
       </c>
       <c r="AE81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF81" t="n">
         <v>1</v>
@@ -9732,6 +11426,27 @@
         <v>3</v>
       </c>
       <c r="AJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>3618</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9759,7 +11474,7 @@
         <v>9.207525655644242</v>
       </c>
       <c r="G82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H82" t="n">
         <v>78</v>
@@ -9846,6 +11561,27 @@
         <v>1</v>
       </c>
       <c r="AJ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>3508</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>9.207525655644242</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9861,7 +11597,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
         <v>3753</v>
@@ -9879,7 +11615,7 @@
         <v>59</v>
       </c>
       <c r="I83" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J83" t="n">
         <v>12</v>
@@ -9906,10 +11642,10 @@
         <v>7</v>
       </c>
       <c r="R83" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S83" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T83" t="n">
         <v>3</v>
@@ -9960,6 +11696,27 @@
         <v>0</v>
       </c>
       <c r="AJ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>3753</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>2.504662936317612</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10076,6 +11833,27 @@
       <c r="AJ84" t="n">
         <v>1</v>
       </c>
+      <c r="AK84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>3270</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10104,10 +11882,10 @@
         <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I85" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J85" t="n">
         <v>17</v>
@@ -10119,13 +11897,13 @@
         <v>19</v>
       </c>
       <c r="M85" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N85" t="n">
         <v>4</v>
       </c>
       <c r="O85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -10188,6 +11966,27 @@
         <v>2</v>
       </c>
       <c r="AJ85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>3281</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10218,7 +12017,7 @@
         <v>14</v>
       </c>
       <c r="H86" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I86" t="n">
         <v>34</v>
@@ -10251,7 +12050,7 @@
         <v>26</v>
       </c>
       <c r="S86" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T86" t="n">
         <v>4</v>
@@ -10302,6 +12101,27 @@
         <v>1</v>
       </c>
       <c r="AJ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>3916</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0.4596527068437181</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10332,10 +12152,10 @@
         <v>12</v>
       </c>
       <c r="H87" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I87" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J87" t="n">
         <v>12</v>
@@ -10416,6 +12236,27 @@
         <v>2</v>
       </c>
       <c r="AJ87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>3951</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0.9111617312072893</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10446,10 +12287,10 @@
         <v>10</v>
       </c>
       <c r="H88" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I88" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J88" t="n">
         <v>13</v>
@@ -10461,7 +12302,7 @@
         <v>28</v>
       </c>
       <c r="M88" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N88" t="n">
         <v>6</v>
@@ -10530,6 +12371,27 @@
         <v>3</v>
       </c>
       <c r="AJ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>3895</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>3.902439024390244</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10563,7 +12425,7 @@
         <v>76</v>
       </c>
       <c r="I89" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J89" t="n">
         <v>7</v>
@@ -10644,6 +12506,27 @@
         <v>1</v>
       </c>
       <c r="AJ89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>23.67663981588032</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10698,7 +12581,7 @@
         <v>7</v>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q90" t="n">
         <v>12</v>
@@ -10734,7 +12617,7 @@
         <v>5</v>
       </c>
       <c r="AB90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC90" t="n">
         <v>6</v>
@@ -10758,6 +12641,27 @@
         <v>0</v>
       </c>
       <c r="AJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>3508</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10874,6 +12778,27 @@
       <c r="AJ91" t="n">
         <v>0</v>
       </c>
+      <c r="AK91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>3531</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>8.496176720475786</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10902,13 +12827,13 @@
         <v>10</v>
       </c>
       <c r="H92" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I92" t="n">
         <v>34</v>
       </c>
       <c r="J92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K92" t="n">
         <v>5</v>
@@ -10932,10 +12857,10 @@
         <v>7</v>
       </c>
       <c r="R92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T92" t="n">
         <v>0</v>
@@ -10986,6 +12911,27 @@
         <v>1</v>
       </c>
       <c r="AJ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>3702</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11016,7 +12962,7 @@
         <v>21</v>
       </c>
       <c r="H93" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I93" t="n">
         <v>44</v>
@@ -11025,7 +12971,7 @@
         <v>15</v>
       </c>
       <c r="K93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L93" t="n">
         <v>15</v>
@@ -11064,7 +13010,7 @@
         <v>10</v>
       </c>
       <c r="X93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -11100,6 +13046,27 @@
         <v>2</v>
       </c>
       <c r="AJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>3772</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>25.02651113467656</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11130,13 +13097,13 @@
         <v>16</v>
       </c>
       <c r="H94" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I94" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K94" t="n">
         <v>14</v>
@@ -11214,6 +13181,27 @@
         <v>1</v>
       </c>
       <c r="AJ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>3624</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>41.30794701986755</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11259,7 +13247,7 @@
         <v>14</v>
       </c>
       <c r="M95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N95" t="n">
         <v>6</v>
@@ -11277,7 +13265,7 @@
         <v>29</v>
       </c>
       <c r="S95" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T95" t="n">
         <v>3</v>
@@ -11328,6 +13316,27 @@
         <v>2</v>
       </c>
       <c r="AJ95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>3536</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>9.219457013574662</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11358,10 +13367,10 @@
         <v>16</v>
       </c>
       <c r="H96" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I96" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J96" t="n">
         <v>17</v>
@@ -11379,7 +13388,7 @@
         <v>5</v>
       </c>
       <c r="O96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -11443,6 +13452,27 @@
       </c>
       <c r="AJ96" t="n">
         <v>2</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>3629</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>5.12537889225682</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -11558,6 +13588,27 @@
       <c r="AJ97" t="n">
         <v>1</v>
       </c>
+      <c r="AK97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>3728</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>14.64592274678111</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11589,13 +13640,13 @@
         <v>60</v>
       </c>
       <c r="I98" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J98" t="n">
         <v>18</v>
       </c>
       <c r="K98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L98" t="n">
         <v>15</v>
@@ -11670,6 +13721,27 @@
         <v>1</v>
       </c>
       <c r="AJ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>3608</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>24.27937915742794</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11786,6 +13858,27 @@
       <c r="AJ99" t="n">
         <v>0</v>
       </c>
+      <c r="AK99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>3396</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11814,10 +13907,10 @@
         <v>9</v>
       </c>
       <c r="H100" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I100" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J100" t="n">
         <v>16</v>
@@ -11838,7 +13931,7 @@
         <v>3</v>
       </c>
       <c r="P100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q100" t="n">
         <v>13</v>
@@ -11898,6 +13991,27 @@
         <v>2</v>
       </c>
       <c r="AJ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>3379</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>4.350399526487126</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12014,6 +14128,27 @@
       <c r="AJ101" t="n">
         <v>1</v>
       </c>
+      <c r="AK101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>3879</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>7.759731889662285</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12042,7 +14177,7 @@
         <v>7</v>
       </c>
       <c r="H102" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I102" t="n">
         <v>49</v>
@@ -12072,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="R102" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12126,6 +14261,27 @@
         <v>1</v>
       </c>
       <c r="AJ102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>3482</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12141,7 +14297,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
         <v>3495</v>
@@ -12168,7 +14324,7 @@
         <v>25</v>
       </c>
       <c r="L103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M103" t="n">
         <v>21</v>
@@ -12240,6 +14396,27 @@
         <v>1</v>
       </c>
       <c r="AJ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>3495</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>4.062947067238913</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12356,6 +14533,27 @@
       <c r="AJ104" t="n">
         <v>0</v>
       </c>
+      <c r="AK104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>2605</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>6.602687140115163</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12417,7 +14615,7 @@
         <v>23</v>
       </c>
       <c r="S105" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -12453,7 +14651,7 @@
         <v>3</v>
       </c>
       <c r="AE105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF105" t="n">
         <v>4</v>
@@ -12469,6 +14667,27 @@
       </c>
       <c r="AJ105" t="n">
         <v>2</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>3619</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>7.598784194528875</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -12513,7 +14732,7 @@
         <v>15</v>
       </c>
       <c r="M106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N106" t="n">
         <v>2</v>
@@ -12528,7 +14747,7 @@
         <v>10</v>
       </c>
       <c r="R106" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S106" t="n">
         <v>19</v>
@@ -12583,6 +14802,27 @@
       </c>
       <c r="AJ106" t="n">
         <v>2</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>3039</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>10.82592958209938</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -12615,7 +14855,7 @@
         <v>38</v>
       </c>
       <c r="I107" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J107" t="n">
         <v>6</v>
@@ -12633,10 +14873,10 @@
         <v>4</v>
       </c>
       <c r="O107" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q107" t="n">
         <v>7</v>
@@ -12657,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X107" t="n">
         <v>7</v>
@@ -12672,7 +14912,7 @@
         <v>4</v>
       </c>
       <c r="AB107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC107" t="n">
         <v>5</v>
@@ -12696,6 +14936,27 @@
         <v>1</v>
       </c>
       <c r="AJ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>4124</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.115421920465567</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12812,6 +15073,27 @@
       <c r="AJ108" t="n">
         <v>1</v>
       </c>
+      <c r="AK108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>3338</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>24.80527261833433</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12840,10 +15122,10 @@
         <v>11</v>
       </c>
       <c r="H109" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I109" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J109" t="n">
         <v>12</v>
@@ -12924,6 +15206,27 @@
         <v>1</v>
       </c>
       <c r="AJ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>3141</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>21.13976440624005</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12939,7 +15242,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
         <v>2693</v>
@@ -12957,7 +15260,7 @@
         <v>41</v>
       </c>
       <c r="I110" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J110" t="n">
         <v>22</v>
@@ -13038,6 +15341,27 @@
         <v>1</v>
       </c>
       <c r="AJ110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2693</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13154,6 +15478,27 @@
       <c r="AJ111" t="n">
         <v>0</v>
       </c>
+      <c r="AK111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>3024</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13167,7 +15512,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D112" t="n">
         <v>3704</v>
@@ -13182,7 +15527,7 @@
         <v>17</v>
       </c>
       <c r="H112" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I112" t="n">
         <v>24</v>
@@ -13212,7 +15557,7 @@
         <v>2</v>
       </c>
       <c r="R112" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S112" t="n">
         <v>19</v>
@@ -13248,7 +15593,7 @@
         <v>2</v>
       </c>
       <c r="AD112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE112" t="n">
         <v>4</v>
@@ -13266,6 +15611,27 @@
         <v>0</v>
       </c>
       <c r="AJ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>3704</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13299,7 +15665,7 @@
         <v>40</v>
       </c>
       <c r="I113" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J113" t="n">
         <v>14</v>
@@ -13380,6 +15746,27 @@
         <v>0</v>
       </c>
       <c r="AJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>3697</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13395,7 +15782,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" t="n">
         <v>3611</v>
@@ -13410,7 +15797,7 @@
         <v>8</v>
       </c>
       <c r="H114" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I114" t="n">
         <v>35</v>
@@ -13422,7 +15809,7 @@
         <v>28</v>
       </c>
       <c r="L114" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M114" t="n">
         <v>29</v>
@@ -13494,6 +15881,27 @@
         <v>3</v>
       </c>
       <c r="AJ114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>3611</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>9.858764885073388</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13509,7 +15917,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
         <v>3016</v>
@@ -13524,7 +15932,7 @@
         <v>15</v>
       </c>
       <c r="H115" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I115" t="n">
         <v>24</v>
@@ -13608,6 +16016,27 @@
         <v>1</v>
       </c>
       <c r="AJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>3016</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13638,7 +16067,7 @@
         <v>13</v>
       </c>
       <c r="H116" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I116" t="n">
         <v>21</v>
@@ -13722,6 +16151,27 @@
         <v>0</v>
       </c>
       <c r="AJ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>3251</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>0.3383574284835435</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13838,6 +16288,27 @@
       <c r="AJ117" t="n">
         <v>2</v>
       </c>
+      <c r="AK117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>3685</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>32.64586160108548</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13851,7 +16322,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D118" t="n">
         <v>3120</v>
@@ -13950,6 +16421,27 @@
         <v>2</v>
       </c>
       <c r="AJ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>3120</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13980,7 +16472,7 @@
         <v>13</v>
       </c>
       <c r="H119" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I119" t="n">
         <v>39</v>
@@ -13998,10 +16490,10 @@
         <v>44</v>
       </c>
       <c r="N119" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P119" t="n">
         <v>8</v>
@@ -14013,7 +16505,7 @@
         <v>24</v>
       </c>
       <c r="S119" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T119" t="n">
         <v>6</v>
@@ -14064,6 +16556,27 @@
         <v>2</v>
       </c>
       <c r="AJ119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>4203</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>20.19985724482513</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14079,7 +16592,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D120" t="n">
         <v>4005</v>
@@ -14097,7 +16610,7 @@
         <v>39</v>
       </c>
       <c r="I120" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J120" t="n">
         <v>21</v>
@@ -14127,7 +16640,7 @@
         <v>23</v>
       </c>
       <c r="S120" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T120" t="n">
         <v>8</v>
@@ -14178,6 +16691,27 @@
         <v>1</v>
       </c>
       <c r="AJ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>4005</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.647940074906367</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14193,7 +16727,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
         <v>3411</v>
@@ -14292,6 +16826,27 @@
         <v>2</v>
       </c>
       <c r="AJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>3411</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>4.690706537672237</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14322,7 +16877,7 @@
         <v>16</v>
       </c>
       <c r="H122" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I122" t="n">
         <v>40</v>
@@ -14334,7 +16889,7 @@
         <v>12</v>
       </c>
       <c r="L122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M122" t="n">
         <v>18</v>
@@ -14406,6 +16961,27 @@
         <v>2</v>
       </c>
       <c r="AJ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2415</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>16.77018633540373</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14436,7 +17012,7 @@
         <v>24</v>
       </c>
       <c r="H123" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I123" t="n">
         <v>56</v>
@@ -14520,6 +17096,27 @@
         <v>1</v>
       </c>
       <c r="AJ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>3256</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>12.19287469287469</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14550,19 +17147,19 @@
         <v>19</v>
       </c>
       <c r="H124" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I124" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J124" t="n">
         <v>26</v>
       </c>
       <c r="K124" t="n">
+        <v>17</v>
+      </c>
+      <c r="L124" t="n">
         <v>16</v>
-      </c>
-      <c r="L124" t="n">
-        <v>15</v>
       </c>
       <c r="M124" t="n">
         <v>37</v>
@@ -14571,7 +17168,7 @@
         <v>4</v>
       </c>
       <c r="O124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P124" t="n">
         <v>9</v>
@@ -14583,7 +17180,7 @@
         <v>29</v>
       </c>
       <c r="S124" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T124" t="n">
         <v>6</v>
@@ -14634,6 +17231,27 @@
         <v>3</v>
       </c>
       <c r="AJ124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>5667</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>36.2802188106582</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14750,6 +17368,27 @@
       <c r="AJ125" t="n">
         <v>1</v>
       </c>
+      <c r="AK125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>4147</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>11.55051844707017</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14781,13 +17420,13 @@
         <v>73</v>
       </c>
       <c r="I126" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J126" t="n">
         <v>18</v>
       </c>
       <c r="K126" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L126" t="n">
         <v>10</v>
@@ -14823,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X126" t="n">
         <v>14</v>
@@ -14862,6 +17501,27 @@
         <v>3</v>
       </c>
       <c r="AJ126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>5371</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>89.81567678272202</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14895,7 +17555,7 @@
         <v>36</v>
       </c>
       <c r="I127" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J127" t="n">
         <v>14</v>
@@ -14976,6 +17636,27 @@
         <v>1</v>
       </c>
       <c r="AJ127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>28.24146981627297</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15021,7 +17702,7 @@
         <v>18</v>
       </c>
       <c r="M128" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N128" t="n">
         <v>8</v>
@@ -15090,6 +17771,27 @@
         <v>0</v>
       </c>
       <c r="AJ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>3450</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15206,6 +17908,27 @@
       <c r="AJ129" t="n">
         <v>1</v>
       </c>
+      <c r="AK129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>3877</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>5.08124838792881</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15264,7 +17987,7 @@
         <v>5</v>
       </c>
       <c r="R130" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S130" t="n">
         <v>35</v>
@@ -15318,6 +18041,27 @@
         <v>1</v>
       </c>
       <c r="AJ130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>3835</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>13.16818774445893</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15351,7 +18095,7 @@
         <v>62</v>
       </c>
       <c r="I131" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J131" t="n">
         <v>17</v>
@@ -15432,6 +18176,27 @@
         <v>4</v>
       </c>
       <c r="AJ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>5822</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>48.8663689453796</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15462,7 +18227,7 @@
         <v>27</v>
       </c>
       <c r="H132" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I132" t="n">
         <v>5</v>
@@ -15546,6 +18311,27 @@
         <v>1</v>
       </c>
       <c r="AJ132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>3196</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>19.36795994993742</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15579,7 +18365,7 @@
         <v>55</v>
       </c>
       <c r="I133" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J133" t="n">
         <v>19</v>
@@ -15660,6 +18446,27 @@
         <v>0</v>
       </c>
       <c r="AJ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>3437</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>8.61216176898458</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15693,7 +18500,7 @@
         <v>39</v>
       </c>
       <c r="I134" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J134" t="n">
         <v>13</v>
@@ -15705,7 +18512,7 @@
         <v>13</v>
       </c>
       <c r="M134" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N134" t="n">
         <v>4</v>
@@ -15774,6 +18581,27 @@
         <v>1</v>
       </c>
       <c r="AJ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>3993</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>14.9511645379414</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15804,7 +18632,7 @@
         <v>15</v>
       </c>
       <c r="H135" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I135" t="n">
         <v>48</v>
@@ -15828,13 +18656,13 @@
         <v>7</v>
       </c>
       <c r="P135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q135" t="n">
         <v>7</v>
       </c>
       <c r="R135" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S135" t="n">
         <v>28</v>
@@ -15888,6 +18716,27 @@
         <v>1</v>
       </c>
       <c r="AJ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>3654</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>16.83087027914614</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15918,7 +18767,7 @@
         <v>16</v>
       </c>
       <c r="H136" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I136" t="n">
         <v>34</v>
@@ -15933,7 +18782,7 @@
         <v>12</v>
       </c>
       <c r="M136" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N136" t="n">
         <v>1</v>
@@ -15951,7 +18800,7 @@
         <v>28</v>
       </c>
       <c r="S136" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T136" t="n">
         <v>2</v>
@@ -15987,7 +18836,7 @@
         <v>9</v>
       </c>
       <c r="AE136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF136" t="n">
         <v>2</v>
@@ -16003,6 +18852,27 @@
       </c>
       <c r="AJ136" t="n">
         <v>2</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>5378</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>38.91781331349944</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -16041,7 +18911,7 @@
         <v>22</v>
       </c>
       <c r="K137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L137" t="n">
         <v>20</v>
@@ -16116,6 +18986,27 @@
         <v>0</v>
       </c>
       <c r="AJ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>5670</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>52.01058201058201</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16232,6 +19123,27 @@
       <c r="AJ138" t="n">
         <v>0</v>
       </c>
+      <c r="AK138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>3162</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>73.46616065781151</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16346,6 +19258,27 @@
       <c r="AJ139" t="n">
         <v>1</v>
       </c>
+      <c r="AK139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2496</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>26.04166666666667</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16374,7 +19307,7 @@
         <v>11</v>
       </c>
       <c r="H140" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I140" t="n">
         <v>43</v>
@@ -16458,6 +19391,27 @@
         <v>1</v>
       </c>
       <c r="AJ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>3186</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>11.70747018204645</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16574,6 +19528,27 @@
       <c r="AJ141" t="n">
         <v>0</v>
       </c>
+      <c r="AK141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16605,7 +19580,7 @@
         <v>51</v>
       </c>
       <c r="I142" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J142" t="n">
         <v>23</v>
@@ -16641,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="U142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V142" t="n">
         <v>0</v>
@@ -16677,7 +19652,7 @@
         <v>0</v>
       </c>
       <c r="AG142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH142" t="n">
         <v>0</v>
@@ -16686,6 +19661,27 @@
         <v>2</v>
       </c>
       <c r="AJ142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>3876</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16701,7 +19697,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
         <v>3568</v>
@@ -16800,6 +19796,27 @@
         <v>1</v>
       </c>
       <c r="AJ143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>3568</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>29.48430493273543</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16833,7 +19850,7 @@
         <v>63</v>
       </c>
       <c r="I144" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J144" t="n">
         <v>18</v>
@@ -16869,7 +19886,7 @@
         <v>5</v>
       </c>
       <c r="U144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V144" t="n">
         <v>0</v>
@@ -16914,6 +19931,27 @@
         <v>1</v>
       </c>
       <c r="AJ144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>3452</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>4.779837775202781</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17030,6 +20068,27 @@
       <c r="AJ145" t="n">
         <v>0</v>
       </c>
+      <c r="AK145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17061,7 +20120,7 @@
         <v>75</v>
       </c>
       <c r="I146" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J146" t="n">
         <v>18</v>
@@ -17073,7 +20132,7 @@
         <v>13</v>
       </c>
       <c r="M146" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N146" t="n">
         <v>7</v>
@@ -17085,7 +20144,7 @@
         <v>8</v>
       </c>
       <c r="Q146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R146" t="n">
         <v>14</v>
@@ -17121,7 +20180,7 @@
         <v>4</v>
       </c>
       <c r="AC146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD146" t="n">
         <v>5</v>
@@ -17142,6 +20201,27 @@
         <v>0</v>
       </c>
       <c r="AJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>3735</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>31.78045515394913</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17205,7 +20285,7 @@
         <v>15</v>
       </c>
       <c r="S147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T147" t="n">
         <v>0</v>
@@ -17241,7 +20321,7 @@
         <v>5</v>
       </c>
       <c r="AE147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF147" t="n">
         <v>0</v>
@@ -17256,6 +20336,27 @@
         <v>0</v>
       </c>
       <c r="AJ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>4118</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>3.011170471102477</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17372,6 +20473,27 @@
       <c r="AJ148" t="n">
         <v>1</v>
       </c>
+      <c r="AK148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>3771</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>13.97507292495359</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17385,7 +20507,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D149" t="n">
         <v>3933</v>
@@ -17418,7 +20540,7 @@
         <v>32</v>
       </c>
       <c r="N149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O149" t="n">
         <v>9</v>
@@ -17454,7 +20576,7 @@
         <v>9</v>
       </c>
       <c r="Z149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA149" t="n">
         <v>4</v>
@@ -17484,6 +20606,27 @@
         <v>1</v>
       </c>
       <c r="AJ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>3933</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17499,7 +20642,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D150" t="n">
         <v>3770</v>
@@ -17598,6 +20741,27 @@
         <v>2</v>
       </c>
       <c r="AJ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>3770</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>67.18832891246684</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17631,7 +20795,7 @@
         <v>57</v>
       </c>
       <c r="I151" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J151" t="n">
         <v>31</v>
@@ -17643,7 +20807,7 @@
         <v>26</v>
       </c>
       <c r="M151" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N151" t="n">
         <v>6</v>
@@ -17658,7 +20822,7 @@
         <v>22</v>
       </c>
       <c r="R151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S151" t="n">
         <v>36</v>
@@ -17712,6 +20876,27 @@
         <v>1</v>
       </c>
       <c r="AJ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>3482</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>11.91843767949454</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17754,7 +20939,7 @@
         <v>10</v>
       </c>
       <c r="L152" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M152" t="n">
         <v>23</v>
@@ -17775,7 +20960,7 @@
         <v>25</v>
       </c>
       <c r="S152" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T152" t="n">
         <v>0</v>
@@ -17826,6 +21011,27 @@
         <v>2</v>
       </c>
       <c r="AJ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>3288</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>26.36861313868613</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17942,6 +21148,27 @@
       <c r="AJ153" t="n">
         <v>0</v>
       </c>
+      <c r="AK153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>3584</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>32.28236607142857</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17955,7 +21182,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D154" t="n">
         <v>3566</v>
@@ -18054,6 +21281,27 @@
         <v>0</v>
       </c>
       <c r="AJ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>3566</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>14.55412226584408</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18170,6 +21418,27 @@
       <c r="AJ155" t="n">
         <v>0</v>
       </c>
+      <c r="AK155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>3221</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>9.686432784849426</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18201,7 +21470,7 @@
         <v>54</v>
       </c>
       <c r="I156" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J156" t="n">
         <v>18</v>
@@ -18213,7 +21482,7 @@
         <v>19</v>
       </c>
       <c r="M156" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N156" t="n">
         <v>9</v>
@@ -18222,7 +21491,7 @@
         <v>11</v>
       </c>
       <c r="P156" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q156" t="n">
         <v>7</v>
@@ -18231,7 +21500,7 @@
         <v>21</v>
       </c>
       <c r="S156" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T156" t="n">
         <v>9</v>
@@ -18282,6 +21551,27 @@
         <v>0</v>
       </c>
       <c r="AJ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>3056</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>22.02225130890052</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18315,7 +21605,7 @@
         <v>41</v>
       </c>
       <c r="I157" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J157" t="n">
         <v>16</v>
@@ -18345,7 +21635,7 @@
         <v>21</v>
       </c>
       <c r="S157" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T157" t="n">
         <v>2</v>
@@ -18357,7 +21647,7 @@
         <v>1</v>
       </c>
       <c r="W157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X157" t="n">
         <v>8</v>
@@ -18396,6 +21686,27 @@
         <v>2</v>
       </c>
       <c r="AJ157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>3376</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>13.71445497630332</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ157" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/all_data_df.xlsx
+++ b/data/all_data_df.xlsx
@@ -7336,16 +7336,16 @@
         <v>0</v>
       </c>
       <c r="AL53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">

--- a/data/all_data_df.xlsx
+++ b/data/all_data_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO158"/>
+  <dimension ref="A1:AQ158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,50 +591,60 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>total_score</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>total_utterances</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>negative_utterance_ratio</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>positive_intensity</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>num_facilitator</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>facilitator_dominance_ratio</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>facilitator_high_quality_ratio</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>facilitator_average_score</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>num_teams</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>num_funded_teams</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>has_teams</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>has_funded_teams</t>
         </is>
@@ -739,33 +749,39 @@
         <v>1.490566037735849</v>
       </c>
       <c r="AF2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0.04347826086956522</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>0.6521739130434783</v>
       </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
         <v>0.4347826086956522</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
         <v>0.6</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
         <v>2</v>
       </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
       <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -868,17 +884,17 @@
         <v>1.723577235772358</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="AG3" t="n">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>0.7678571428571429</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
@@ -886,15 +902,21 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>2</v>
       </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1</v>
-      </c>
       <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -997,33 +1019,39 @@
         <v>1.683823529411765</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="AG4" t="n">
+        <v>71</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>0.7887323943661971</v>
       </c>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
         <v>0.2112676056338028</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>0.5333333333333333</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
       <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1126,17 +1154,17 @@
         <v>1.61038961038961</v>
       </c>
       <c r="AF5" t="n">
+        <v>248</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH5" t="n">
         <v>0.025</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>0.7125</v>
       </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
@@ -1144,15 +1172,21 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>2</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1</v>
-      </c>
       <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1255,17 +1289,17 @@
         <v>1.689189189189189</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AG6" t="n">
+        <v>82</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>0.7682926829268293</v>
       </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
@@ -1273,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1282,6 +1316,12 @@
         <v>1</v>
       </c>
       <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1384,17 +1424,17 @@
         <v>1.565714285714286</v>
       </c>
       <c r="AF7" t="n">
+        <v>274</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="n">
         <v>0.01162790697674419</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>0.6976744186046512</v>
       </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ7" t="n">
         <v>0</v>
       </c>
@@ -1402,15 +1442,21 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3</v>
       </c>
-      <c r="AM7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1</v>
-      </c>
       <c r="AO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1513,17 +1559,17 @@
         <v>1.493670886075949</v>
       </c>
       <c r="AF8" t="n">
+        <v>236</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>89</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0.01123595505617977</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>0.6404494382022472</v>
       </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
@@ -1531,15 +1577,21 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
         <v>2</v>
       </c>
-      <c r="AM8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1</v>
-      </c>
       <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1642,33 +1694,39 @@
         <v>1.552188552188552</v>
       </c>
       <c r="AF9" t="n">
+        <v>461</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0.00625</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>0.65</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>2</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
         <v>0.30625</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>1.478260869565217</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AN9" t="n">
         <v>2</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AO9" t="n">
         <v>2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1771,17 +1829,17 @@
         <v>1.617647058823529</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AG10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>0.7014925373134329</v>
       </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
@@ -1789,15 +1847,21 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
         <v>3</v>
       </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1</v>
-      </c>
       <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1900,17 +1964,17 @@
         <v>1.514563106796116</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
@@ -1918,15 +1982,21 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>3</v>
       </c>
-      <c r="AM11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
       <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,33 +2099,39 @@
         <v>1.442786069651741</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AG12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="AH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="n">
         <v>0.008333333333333333</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
       <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="n">
         <v>2</v>
       </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1</v>
-      </c>
       <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2158,17 +2234,17 @@
         <v>1.674556213017751</v>
       </c>
       <c r="AF13" t="n">
+        <v>283</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>88</v>
+      </c>
+      <c r="AH13" t="n">
         <v>0.01136363636363636</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>0.7613636363636364</v>
       </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
@@ -2176,15 +2252,21 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
         <v>2</v>
       </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1</v>
-      </c>
       <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2287,33 +2369,39 @@
         <v>1.435897435897436</v>
       </c>
       <c r="AF14" t="n">
+        <v>112</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH14" t="n">
         <v>0.02439024390243903</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
         <v>0.6341463414634146</v>
       </c>
-      <c r="AH14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="n">
         <v>0.3658536585365854</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AL14" t="n">
         <v>0.5333333333333333</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AM14" t="n">
         <v>1.419354838709677</v>
       </c>
-      <c r="AL14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1</v>
-      </c>
       <c r="AN14" t="n">
         <v>1</v>
       </c>
       <c r="AO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,33 +2504,39 @@
         <v>1.560606060606061</v>
       </c>
       <c r="AF15" t="n">
+        <v>103</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH15" t="n">
         <v>0.02631578947368421</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>0.6842105263157895</v>
       </c>
-      <c r="AH15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="n">
         <v>0.07894736842105263</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AN15" t="n">
         <v>3</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AO15" t="n">
         <v>2</v>
       </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="n">
+      <c r="AP15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2545,17 +2639,17 @@
         <v>1.597122302158273</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="AG16" t="n">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
         <v>0.6753246753246753</v>
       </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
@@ -2563,15 +2657,21 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>2</v>
       </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1</v>
-      </c>
       <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2674,17 +2774,17 @@
         <v>1.478260869565217</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AG17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>0.5357142857142857</v>
       </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
@@ -2692,15 +2792,21 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
         <v>1</v>
       </c>
       <c r="AO17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2803,33 +2909,39 @@
         <v>1.552</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="AG18" t="n">
+        <v>139</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>0.6402877697841727</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AJ18" t="n">
         <v>2</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AK18" t="n">
         <v>0.3453237410071943</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AL18" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AN18" t="n">
         <v>3</v>
       </c>
-      <c r="AM18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1</v>
-      </c>
       <c r="AO18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,33 +3044,39 @@
         <v>1.280871670702179</v>
       </c>
       <c r="AF19" t="n">
+        <v>529</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>287</v>
+      </c>
+      <c r="AH19" t="n">
         <v>0.003484320557491289</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
         <v>0.4808362369337979</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AJ19" t="n">
         <v>2</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AK19" t="n">
         <v>0.2822299651567944</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AL19" t="n">
         <v>0.2962962962962963</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
         <v>1.026315789473684</v>
       </c>
-      <c r="AL19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
       <c r="AN19" t="n">
         <v>1</v>
       </c>
       <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3061,33 +3179,39 @@
         <v>1.505576208178439</v>
       </c>
       <c r="AF20" t="n">
+        <v>405</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
         <v>0.006622516556291391</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
         <v>0.6291390728476821</v>
       </c>
-      <c r="AH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="n">
         <v>0.2781456953642384</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AL20" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AM20" t="n">
         <v>1.426666666666667</v>
       </c>
-      <c r="AL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1</v>
-      </c>
       <c r="AN20" t="n">
         <v>1</v>
       </c>
       <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3190,17 +3314,17 @@
         <v>1.150568181818182</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="AG21" t="n">
+        <v>235</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>0.3829787234042553</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
@@ -3217,6 +3341,12 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3319,33 +3449,39 @@
         <v>1.552631578947368</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="AG22" t="n">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
         <v>0.6410256410256411</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>2</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AK22" t="n">
         <v>0.282051282051282</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AL22" t="n">
         <v>0.6363636363636364</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
         <v>1.521739130434783</v>
       </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
       <c r="AN22" t="n">
         <v>0</v>
       </c>
       <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3448,33 +3584,39 @@
         <v>1.221176470588235</v>
       </c>
       <c r="AF23" t="n">
+        <v>519</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>288</v>
+      </c>
+      <c r="AH23" t="n">
         <v>0.01041666666666667</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>0.4236111111111111</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
         <v>2</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AK23" t="n">
         <v>0.3993055555555556</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AL23" t="n">
         <v>0.2695652173913043</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>0.968944099378882</v>
       </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
       <c r="AN23" t="n">
         <v>0</v>
       </c>
       <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3577,33 +3719,39 @@
         <v>1.427083333333333</v>
       </c>
       <c r="AF24" t="n">
+        <v>411</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>190</v>
+      </c>
+      <c r="AH24" t="n">
         <v>0.005263157894736842</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>0.5631578947368421</v>
       </c>
-      <c r="AH24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI24" t="n">
+      <c r="AJ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="n">
         <v>0.3421052631578947</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AL24" t="n">
         <v>0.5538461538461539</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>1.40625</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AN24" t="n">
         <v>2</v>
       </c>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1</v>
-      </c>
       <c r="AO24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,33 +3854,39 @@
         <v>1.404761904761905</v>
       </c>
       <c r="AF25" t="n">
+        <v>531</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>228</v>
+      </c>
+      <c r="AH25" t="n">
         <v>0.004385964912280702</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
         <v>0.5087719298245614</v>
       </c>
-      <c r="AH25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="n">
+      <c r="AJ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="n">
         <v>0.5526315789473685</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AL25" t="n">
         <v>0.4841269841269841</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>1.384615384615385</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AN25" t="n">
         <v>2</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AO25" t="n">
         <v>2</v>
       </c>
-      <c r="AN25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="AP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3835,33 +3989,39 @@
         <v>1.253658536585366</v>
       </c>
       <c r="AF26" t="n">
+        <v>514</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>275</v>
+      </c>
+      <c r="AH26" t="n">
         <v>0.01818181818181818</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1</v>
       </c>
       <c r="AI26" t="n">
         <v>0.44</v>
       </c>
       <c r="AJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AL26" t="n">
         <v>0.3223140495867768</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AM26" t="n">
         <v>1.061797752808989</v>
       </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
       <c r="AN26" t="n">
         <v>0</v>
       </c>
       <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3964,33 +4124,39 @@
         <v>1.025821596244131</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="AG27" t="n">
+        <v>327</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
         <v>0.3363914373088685</v>
       </c>
-      <c r="AH27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI27" t="n">
+      <c r="AJ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="n">
         <v>0.003058103975535168</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="AL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="n">
         <v>2</v>
       </c>
-      <c r="AL27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
       <c r="AN27" t="n">
         <v>1</v>
       </c>
       <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4093,33 +4259,39 @@
         <v>1.41643059490085</v>
       </c>
       <c r="AF28" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>235</v>
+      </c>
+      <c r="AH28" t="n">
         <v>0.00425531914893617</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>0.5531914893617021</v>
       </c>
-      <c r="AH28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI28" t="n">
+      <c r="AJ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="n">
         <v>0.1531914893617021</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AL28" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AM28" t="n">
         <v>1.285714285714286</v>
       </c>
-      <c r="AL28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
       <c r="AN28" t="n">
         <v>1</v>
       </c>
       <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4222,33 +4394,39 @@
         <v>1.3601108033241</v>
       </c>
       <c r="AF29" t="n">
+        <v>491</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>215</v>
+      </c>
+      <c r="AH29" t="n">
         <v>0.004651162790697674</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>0.4883720930232558</v>
       </c>
-      <c r="AH29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI29" t="n">
+      <c r="AJ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" t="n">
         <v>0.5348837209302325</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AL29" t="n">
         <v>0.4434782608695652</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AM29" t="n">
         <v>1.272277227722772</v>
       </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
       <c r="AN29" t="n">
         <v>0</v>
       </c>
       <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4351,33 +4529,39 @@
         <v>1.173295454545455</v>
       </c>
       <c r="AF30" t="n">
+        <v>413</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>230</v>
+      </c>
+      <c r="AH30" t="n">
         <v>0.008695652173913044</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
         <v>0.3869565217391304</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>2</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AK30" t="n">
         <v>0.2347826086956522</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AL30" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AM30" t="n">
         <v>1.108433734939759</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AN30" t="n">
         <v>2</v>
       </c>
-      <c r="AM30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1</v>
-      </c>
       <c r="AO30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4480,33 +4664,39 @@
         <v>1.272988505747126</v>
       </c>
       <c r="AF31" t="n">
+        <v>443</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>219</v>
+      </c>
+      <c r="AH31" t="n">
         <v>0.0045662100456621</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>0.4337899543378995</v>
       </c>
-      <c r="AH31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI31" t="n">
+      <c r="AJ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="n">
         <v>0.1278538812785388</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AL31" t="n">
         <v>0.2142857142857143</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AM31" t="n">
         <v>1.021276595744681</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AN31" t="n">
         <v>2</v>
       </c>
-      <c r="AM31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1</v>
-      </c>
       <c r="AO31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,33 +4799,39 @@
         <v>1.205797101449275</v>
       </c>
       <c r="AF32" t="n">
+        <v>416</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>232</v>
+      </c>
+      <c r="AH32" t="n">
         <v>0.004310344827586207</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
         <v>0.456896551724138</v>
       </c>
-      <c r="AH32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI32" t="n">
+      <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
         <v>0.2543103448275862</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AL32" t="n">
         <v>0.5084745762711864</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AM32" t="n">
         <v>1.329411764705882</v>
       </c>
-      <c r="AL32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
       <c r="AN32" t="n">
         <v>1</v>
       </c>
       <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4738,33 +4934,39 @@
         <v>1.504950495049505</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="AG33" t="n">
+        <v>174</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
         <v>0.6091954022988506</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>2</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AK33" t="n">
         <v>0.2471264367816092</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AL33" t="n">
         <v>0.3953488372093023</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AM33" t="n">
         <v>1.295774647887324</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AN33" t="n">
         <v>3</v>
       </c>
-      <c r="AM33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1</v>
-      </c>
       <c r="AO33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4867,33 +5069,39 @@
         <v>1.298507462686567</v>
       </c>
       <c r="AF34" t="n">
+        <v>522</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>267</v>
+      </c>
+      <c r="AH34" t="n">
         <v>0.0149812734082397</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AI34" t="n">
         <v>0.4531835205992509</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AJ34" t="n">
         <v>2</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AK34" t="n">
         <v>0.3183520599250936</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AL34" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AM34" t="n">
         <v>1.097744360902256</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AN34" t="n">
         <v>3</v>
       </c>
-      <c r="AM34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1</v>
-      </c>
       <c r="AO34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4996,33 +5204,39 @@
         <v>1.516129032258065</v>
       </c>
       <c r="AF35" t="n">
+        <v>470</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>188</v>
+      </c>
+      <c r="AH35" t="n">
         <v>0.005319148936170213</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AI35" t="n">
         <v>0.6223404255319149</v>
       </c>
-      <c r="AH35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI35" t="n">
+      <c r="AJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="n">
         <v>0.2819148936170213</v>
       </c>
-      <c r="AJ35" t="n">
+      <c r="AL35" t="n">
         <v>0.5283018867924528</v>
       </c>
-      <c r="AK35" t="n">
+      <c r="AM35" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1</v>
-      </c>
       <c r="AN35" t="n">
         <v>1</v>
       </c>
       <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5125,33 +5339,39 @@
         <v>1.280334728033473</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="AG36" t="n">
+        <v>298</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
         <v>0.4395973154362416</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
         <v>2</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AK36" t="n">
         <v>0.4530201342281879</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AL36" t="n">
         <v>0.3925925925925926</v>
       </c>
-      <c r="AK36" t="n">
+      <c r="AM36" t="n">
         <v>1.198198198198198</v>
       </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
       <c r="AN36" t="n">
         <v>0</v>
       </c>
       <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5254,33 +5474,39 @@
         <v>1.43728813559322</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="AG37" t="n">
+        <v>174</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
         <v>0.5574712643678161</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AJ37" t="n">
         <v>2</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AK37" t="n">
         <v>0.396551724137931</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AL37" t="n">
         <v>0.463768115942029</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AM37" t="n">
         <v>1.341666666666667</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AN37" t="n">
         <v>3</v>
       </c>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1</v>
-      </c>
       <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5383,33 +5609,39 @@
         <v>1.371508379888268</v>
       </c>
       <c r="AF38" t="n">
+        <v>491</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>255</v>
+      </c>
+      <c r="AH38" t="n">
         <v>0.01176470588235294</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AI38" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="AH38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI38" t="n">
+      <c r="AJ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="n">
         <v>0.3215686274509804</v>
       </c>
-      <c r="AJ38" t="n">
+      <c r="AL38" t="n">
         <v>0.4878048780487805</v>
       </c>
-      <c r="AK38" t="n">
+      <c r="AM38" t="n">
         <v>1.293103448275862</v>
       </c>
-      <c r="AL38" t="n">
+      <c r="AN38" t="n">
         <v>2</v>
       </c>
-      <c r="AM38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1</v>
-      </c>
       <c r="AO38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5512,33 +5744,39 @@
         <v>1.456919060052219</v>
       </c>
       <c r="AF39" t="n">
+        <v>558</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>237</v>
+      </c>
+      <c r="AH39" t="n">
         <v>0.004219409282700422</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AI39" t="n">
         <v>0.5485232067510548</v>
       </c>
-      <c r="AH39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI39" t="n">
+      <c r="AJ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="n">
         <v>0.2658227848101266</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AL39" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="AM39" t="n">
         <v>1.514851485148515</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AN39" t="n">
         <v>2</v>
       </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1</v>
-      </c>
       <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5641,33 +5879,39 @@
         <v>1.284246575342466</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="AG40" t="n">
+        <v>189</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
         <v>0.4603174603174603</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AJ40" t="n">
         <v>2</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AK40" t="n">
         <v>0.3386243386243386</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AL40" t="n">
         <v>0.40625</v>
       </c>
-      <c r="AK40" t="n">
+      <c r="AM40" t="n">
         <v>1.28695652173913</v>
       </c>
-      <c r="AL40" t="n">
+      <c r="AN40" t="n">
         <v>3</v>
       </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1</v>
-      </c>
       <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5770,33 +6014,39 @@
         <v>1.364583333333333</v>
       </c>
       <c r="AF41" t="n">
+        <v>262</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>121</v>
+      </c>
+      <c r="AH41" t="n">
         <v>0.01652892561983471</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AI41" t="n">
         <v>0.487603305785124</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AJ41" t="n">
         <v>2</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AK41" t="n">
         <v>0.3388429752066116</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AL41" t="n">
         <v>0.4146341463414634</v>
       </c>
-      <c r="AK41" t="n">
+      <c r="AM41" t="n">
         <v>1.318181818181818</v>
       </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
       <c r="AN41" t="n">
         <v>0</v>
       </c>
       <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5899,33 +6149,39 @@
         <v>1.355889724310777</v>
       </c>
       <c r="AF42" t="n">
+        <v>541</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>259</v>
+      </c>
+      <c r="AH42" t="n">
         <v>0.007722007722007722</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AI42" t="n">
         <v>0.5135135135135135</v>
       </c>
-      <c r="AH42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI42" t="n">
+      <c r="AJ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="n">
         <v>0.2664092664092664</v>
       </c>
-      <c r="AJ42" t="n">
+      <c r="AL42" t="n">
         <v>0.3768115942028986</v>
       </c>
-      <c r="AK42" t="n">
+      <c r="AM42" t="n">
         <v>1.188118811881188</v>
       </c>
-      <c r="AL42" t="n">
+      <c r="AN42" t="n">
         <v>2</v>
       </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1</v>
-      </c>
       <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6028,33 +6284,39 @@
         <v>1.347266881028939</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="AG43" t="n">
+        <v>202</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
         <v>0.4603960396039604</v>
       </c>
-      <c r="AH43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI43" t="n">
+      <c r="AJ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="n">
         <v>0.2673267326732673</v>
       </c>
-      <c r="AJ43" t="n">
+      <c r="AL43" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AK43" t="n">
+      <c r="AM43" t="n">
         <v>1.233766233766234</v>
       </c>
-      <c r="AL43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
       <c r="AN43" t="n">
         <v>1</v>
       </c>
       <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6157,10 +6419,10 @@
         <v>1</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" t="n">
         <v>0</v>
@@ -6184,6 +6446,12 @@
         <v>0</v>
       </c>
       <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6286,33 +6554,39 @@
         <v>1.451388888888889</v>
       </c>
       <c r="AF45" t="n">
+        <v>418</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>163</v>
+      </c>
+      <c r="AH45" t="n">
         <v>0.006134969325153374</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AI45" t="n">
         <v>0.6134969325153374</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AJ45" t="n">
         <v>2</v>
       </c>
-      <c r="AI45" t="n">
+      <c r="AK45" t="n">
         <v>0.343558282208589</v>
       </c>
-      <c r="AJ45" t="n">
+      <c r="AL45" t="n">
         <v>0.6428571428571429</v>
       </c>
-      <c r="AK45" t="n">
+      <c r="AM45" t="n">
         <v>1.515463917525773</v>
       </c>
-      <c r="AL45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
       <c r="AN45" t="n">
         <v>1</v>
       </c>
       <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6415,33 +6689,39 @@
         <v>1.394648829431438</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="AG46" t="n">
+        <v>186</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
         <v>0.521505376344086</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AJ46" t="n">
         <v>2</v>
       </c>
-      <c r="AI46" t="n">
+      <c r="AK46" t="n">
         <v>0.2204301075268817</v>
       </c>
-      <c r="AJ46" t="n">
+      <c r="AL46" t="n">
         <v>0.2682926829268293</v>
       </c>
-      <c r="AK46" t="n">
+      <c r="AM46" t="n">
         <v>1.223684210526316</v>
       </c>
-      <c r="AL46" t="n">
+      <c r="AN46" t="n">
         <v>3</v>
       </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>1</v>
-      </c>
       <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,33 +6824,39 @@
         <v>1.316526610644258</v>
       </c>
       <c r="AF47" t="n">
+        <v>470</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>259</v>
+      </c>
+      <c r="AH47" t="n">
         <v>0.003861003861003861</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AI47" t="n">
         <v>0.4864864864864865</v>
       </c>
-      <c r="AH47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI47" t="n">
+      <c r="AJ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="n">
         <v>0.1196911196911197</v>
       </c>
-      <c r="AJ47" t="n">
+      <c r="AL47" t="n">
         <v>0.3548387096774194</v>
       </c>
-      <c r="AK47" t="n">
+      <c r="AM47" t="n">
         <v>1.191489361702128</v>
       </c>
-      <c r="AL47" t="n">
+      <c r="AN47" t="n">
         <v>2</v>
       </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>1</v>
-      </c>
       <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6673,33 +6959,39 @@
         <v>1.169491525423729</v>
       </c>
       <c r="AF48" t="n">
+        <v>414</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>240</v>
+      </c>
+      <c r="AH48" t="n">
         <v>0.004166666666666667</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AI48" t="n">
         <v>0.4</v>
       </c>
-      <c r="AH48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI48" t="n">
+      <c r="AJ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AL48" t="n">
         <v>0.475</v>
       </c>
-      <c r="AK48" t="n">
+      <c r="AM48" t="n">
         <v>1.294117647058824</v>
       </c>
-      <c r="AL48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1</v>
-      </c>
       <c r="AN48" t="n">
         <v>1</v>
       </c>
       <c r="AO48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6802,33 +7094,39 @@
         <v>1.490842490842491</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="AG49" t="n">
+        <v>153</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
         <v>0.6078431372549019</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AJ49" t="n">
         <v>2</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AK49" t="n">
         <v>0.2091503267973856</v>
       </c>
-      <c r="AJ49" t="n">
+      <c r="AL49" t="n">
         <v>0.25</v>
       </c>
-      <c r="AK49" t="n">
+      <c r="AM49" t="n">
         <v>1.135593220338983</v>
       </c>
-      <c r="AL49" t="n">
+      <c r="AN49" t="n">
         <v>2</v>
       </c>
-      <c r="AM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1</v>
-      </c>
       <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6931,33 +7229,39 @@
         <v>1.445544554455445</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="AG50" t="n">
+        <v>214</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
         <v>0.5747663551401869</v>
       </c>
-      <c r="AH50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI50" t="n">
+      <c r="AJ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="n">
         <v>0.4065420560747663</v>
       </c>
-      <c r="AJ50" t="n">
+      <c r="AL50" t="n">
         <v>0.6781609195402298</v>
       </c>
-      <c r="AK50" t="n">
+      <c r="AM50" t="n">
         <v>1.580152671755725</v>
       </c>
-      <c r="AL50" t="n">
+      <c r="AN50" t="n">
         <v>3</v>
       </c>
-      <c r="AM50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1</v>
-      </c>
       <c r="AO50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7060,33 +7364,39 @@
         <v>1.393393393393393</v>
       </c>
       <c r="AF51" t="n">
+        <v>464</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH51" t="n">
         <v>0.01492537313432836</v>
       </c>
-      <c r="AG51" t="n">
+      <c r="AI51" t="n">
         <v>0.5223880597014925</v>
       </c>
-      <c r="AH51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI51" t="n">
+      <c r="AJ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" t="n">
         <v>0.1741293532338309</v>
       </c>
-      <c r="AJ51" t="n">
+      <c r="AL51" t="n">
         <v>0.2571428571428571</v>
       </c>
-      <c r="AK51" t="n">
+      <c r="AM51" t="n">
         <v>1.098360655737705</v>
       </c>
-      <c r="AL51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>0</v>
-      </c>
       <c r="AN51" t="n">
         <v>1</v>
       </c>
       <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7189,33 +7499,39 @@
         <v>1.408045977011494</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="AG52" t="n">
+        <v>223</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
         <v>0.5246636771300448</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AJ52" t="n">
         <v>2</v>
       </c>
-      <c r="AI52" t="n">
+      <c r="AK52" t="n">
         <v>0.2466367713004484</v>
       </c>
-      <c r="AJ52" t="n">
+      <c r="AL52" t="n">
         <v>0.3454545454545455</v>
       </c>
-      <c r="AK52" t="n">
+      <c r="AM52" t="n">
         <v>1.255813953488372</v>
       </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>0</v>
-      </c>
       <c r="AN52" t="n">
         <v>0</v>
       </c>
       <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7318,17 +7634,17 @@
         <v>1.394736842105263</v>
       </c>
       <c r="AF53" t="n">
+        <v>477</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>222</v>
+      </c>
+      <c r="AH53" t="n">
         <v>0.009009009009009009</v>
       </c>
-      <c r="AG53" t="n">
+      <c r="AI53" t="n">
         <v>0.5495495495495496</v>
       </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ53" t="n">
         <v>0</v>
       </c>
@@ -7345,6 +7661,12 @@
         <v>0</v>
       </c>
       <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7447,33 +7769,39 @@
         <v>1.38692098092643</v>
       </c>
       <c r="AF54" t="n">
+        <v>509</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>228</v>
+      </c>
+      <c r="AH54" t="n">
         <v>0.01754385964912281</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AI54" t="n">
         <v>0.5263157894736842</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AJ54" t="n">
         <v>2</v>
       </c>
-      <c r="AI54" t="n">
+      <c r="AK54" t="n">
         <v>0.4824561403508772</v>
       </c>
-      <c r="AJ54" t="n">
+      <c r="AL54" t="n">
         <v>0.4636363636363636</v>
       </c>
-      <c r="AK54" t="n">
+      <c r="AM54" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0</v>
-      </c>
       <c r="AN54" t="n">
         <v>0</v>
       </c>
       <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7576,33 +7904,39 @@
         <v>1.362776025236593</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="n">
+        <v>209</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
         <v>0.5023923444976076</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AJ55" t="n">
         <v>2</v>
       </c>
-      <c r="AI55" t="n">
+      <c r="AK55" t="n">
         <v>0.2488038277511962</v>
       </c>
-      <c r="AJ55" t="n">
+      <c r="AL55" t="n">
         <v>0.3653846153846154</v>
       </c>
-      <c r="AK55" t="n">
+      <c r="AM55" t="n">
         <v>1.240506329113924</v>
       </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>0</v>
-      </c>
       <c r="AN55" t="n">
         <v>0</v>
       </c>
       <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7705,33 +8039,39 @@
         <v>1.354679802955665</v>
       </c>
       <c r="AF56" t="n">
+        <v>275</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>134</v>
+      </c>
+      <c r="AH56" t="n">
         <v>0.04477611940298507</v>
       </c>
-      <c r="AG56" t="n">
+      <c r="AI56" t="n">
         <v>0.5970149253731343</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AJ56" t="n">
         <v>2</v>
       </c>
-      <c r="AI56" t="n">
+      <c r="AK56" t="n">
         <v>0.2985074626865671</v>
       </c>
-      <c r="AJ56" t="n">
+      <c r="AL56" t="n">
         <v>0.575</v>
       </c>
-      <c r="AK56" t="n">
+      <c r="AM56" t="n">
         <v>1.283582089552239</v>
       </c>
-      <c r="AL56" t="n">
+      <c r="AN56" t="n">
         <v>2</v>
       </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1</v>
-      </c>
       <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7834,33 +8174,39 @@
         <v>1.144144144144144</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="n">
+        <v>218</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
         <v>0.3623853211009174</v>
       </c>
-      <c r="AH57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI57" t="n">
+      <c r="AJ57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK57" t="n">
         <v>0.1972477064220184</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AL57" t="n">
         <v>0.3023255813953488</v>
       </c>
-      <c r="AK57" t="n">
+      <c r="AM57" t="n">
         <v>1.141025641025641</v>
       </c>
-      <c r="AL57" t="n">
+      <c r="AN57" t="n">
         <v>2</v>
       </c>
-      <c r="AM57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1</v>
-      </c>
       <c r="AO57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7963,33 +8309,39 @@
         <v>1.505226480836237</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="n">
+        <v>193</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
         <v>0.616580310880829</v>
       </c>
-      <c r="AH58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI58" t="n">
+      <c r="AJ58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK58" t="n">
         <v>0.2124352331606218</v>
       </c>
-      <c r="AJ58" t="n">
+      <c r="AL58" t="n">
         <v>0.5609756097560976</v>
       </c>
-      <c r="AK58" t="n">
+      <c r="AM58" t="n">
         <v>1.446428571428571</v>
       </c>
-      <c r="AL58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0</v>
-      </c>
       <c r="AN58" t="n">
         <v>1</v>
       </c>
       <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8092,33 +8444,39 @@
         <v>1.407051282051282</v>
       </c>
       <c r="AF59" t="n">
+        <v>439</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>187</v>
+      </c>
+      <c r="AH59" t="n">
         <v>0.0106951871657754</v>
       </c>
-      <c r="AG59" t="n">
+      <c r="AI59" t="n">
         <v>0.5240641711229946</v>
       </c>
-      <c r="AH59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI59" t="n">
+      <c r="AJ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK59" t="n">
         <v>0.160427807486631</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AL59" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AK59" t="n">
+      <c r="AM59" t="n">
         <v>1.232558139534884</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AN59" t="n">
         <v>2</v>
       </c>
-      <c r="AM59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1</v>
-      </c>
       <c r="AO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8221,33 +8579,39 @@
         <v>1.256172839506173</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="n">
+        <v>213</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
         <v>0.4178403755868544</v>
       </c>
-      <c r="AH60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI60" t="n">
+      <c r="AJ60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK60" t="n">
         <v>0.2488262910798122</v>
       </c>
-      <c r="AJ60" t="n">
+      <c r="AL60" t="n">
         <v>0.3962264150943396</v>
       </c>
-      <c r="AK60" t="n">
+      <c r="AM60" t="n">
         <v>1.325581395348837</v>
       </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>0</v>
-      </c>
       <c r="AN60" t="n">
         <v>0</v>
       </c>
       <c r="AO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8350,33 +8714,39 @@
         <v>1.424137931034483</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="AG61" t="n">
+        <v>176</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="n">
         <v>0.5397727272727273</v>
       </c>
-      <c r="AH61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI61" t="n">
+      <c r="AJ61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK61" t="n">
         <v>0.1704545454545454</v>
       </c>
-      <c r="AJ61" t="n">
+      <c r="AL61" t="n">
         <v>0.4666666666666667</v>
       </c>
-      <c r="AK61" t="n">
+      <c r="AM61" t="n">
         <v>1.274193548387097</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AN61" t="n">
         <v>2</v>
       </c>
-      <c r="AM61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>1</v>
-      </c>
       <c r="AO61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8479,33 +8849,39 @@
         <v>1.517857142857143</v>
       </c>
       <c r="AF62" t="n">
+        <v>425</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH62" t="n">
         <v>0.01111111111111111</v>
       </c>
-      <c r="AG62" t="n">
+      <c r="AI62" t="n">
         <v>0.6444444444444445</v>
       </c>
-      <c r="AH62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI62" t="n">
+      <c r="AJ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK62" t="n">
         <v>0.2111111111111111</v>
       </c>
-      <c r="AJ62" t="n">
+      <c r="AL62" t="n">
         <v>0.3947368421052632</v>
       </c>
-      <c r="AK62" t="n">
+      <c r="AM62" t="n">
         <v>1.216666666666667</v>
       </c>
-      <c r="AL62" t="n">
+      <c r="AN62" t="n">
         <v>2</v>
       </c>
-      <c r="AM62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>1</v>
-      </c>
       <c r="AO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8608,33 +8984,39 @@
         <v>1.479591836734694</v>
       </c>
       <c r="AF63" t="n">
+        <v>435</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH63" t="n">
         <v>0.005714285714285714</v>
       </c>
-      <c r="AG63" t="n">
+      <c r="AI63" t="n">
         <v>0.5771428571428572</v>
       </c>
-      <c r="AH63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI63" t="n">
+      <c r="AJ63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK63" t="n">
         <v>0.3942857142857143</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AL63" t="n">
         <v>0.4492753623188406</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AM63" t="n">
         <v>1.330434782608696</v>
       </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>0</v>
-      </c>
       <c r="AN63" t="n">
         <v>0</v>
       </c>
       <c r="AO63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8737,33 +9119,39 @@
         <v>1.400593471810089</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="AG64" t="n">
+        <v>199</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="n">
         <v>0.5226130653266332</v>
       </c>
-      <c r="AH64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI64" t="n">
+      <c r="AJ64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK64" t="n">
         <v>0.2814070351758794</v>
       </c>
-      <c r="AJ64" t="n">
+      <c r="AL64" t="n">
         <v>0.375</v>
       </c>
-      <c r="AK64" t="n">
+      <c r="AM64" t="n">
         <v>1.285714285714286</v>
       </c>
-      <c r="AL64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>1</v>
-      </c>
       <c r="AN64" t="n">
         <v>1</v>
       </c>
       <c r="AO64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8866,33 +9254,39 @@
         <v>1.526315789473684</v>
       </c>
       <c r="AF65" t="n">
+        <v>464</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>182</v>
+      </c>
+      <c r="AH65" t="n">
         <v>0.005494505494505495</v>
       </c>
-      <c r="AG65" t="n">
+      <c r="AI65" t="n">
         <v>0.6043956043956044</v>
       </c>
-      <c r="AH65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI65" t="n">
+      <c r="AJ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK65" t="n">
         <v>0.4120879120879121</v>
       </c>
-      <c r="AJ65" t="n">
+      <c r="AL65" t="n">
         <v>0.64</v>
       </c>
-      <c r="AK65" t="n">
+      <c r="AM65" t="n">
         <v>1.548872180451128</v>
       </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>0</v>
-      </c>
       <c r="AN65" t="n">
         <v>0</v>
       </c>
       <c r="AO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8995,17 +9389,17 @@
         <v>1.35472972972973</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="AG66" t="n">
+        <v>204</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
         <v>0.5147058823529411</v>
       </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ66" t="n">
         <v>0</v>
       </c>
@@ -9022,6 +9416,12 @@
         <v>0</v>
       </c>
       <c r="AO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9124,33 +9524,39 @@
         <v>1.425925925925926</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="AG67" t="n">
+        <v>132</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
         <v>0.5757575757575758</v>
       </c>
-      <c r="AH67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI67" t="n">
+      <c r="AJ67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK67" t="n">
         <v>0.3181818181818182</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AL67" t="n">
         <v>0.5476190476190477</v>
       </c>
-      <c r="AK67" t="n">
+      <c r="AM67" t="n">
         <v>1.402597402597403</v>
       </c>
-      <c r="AL67" t="n">
+      <c r="AN67" t="n">
         <v>2</v>
       </c>
-      <c r="AM67" t="n">
+      <c r="AO67" t="n">
         <v>2</v>
       </c>
-      <c r="AN67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO67" t="n">
+      <c r="AP67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9253,33 +9659,39 @@
         <v>1.392105263157895</v>
       </c>
       <c r="AF68" t="n">
+        <v>529</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>243</v>
+      </c>
+      <c r="AH68" t="n">
         <v>0.00823045267489712</v>
       </c>
-      <c r="AG68" t="n">
+      <c r="AI68" t="n">
         <v>0.5349794238683128</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AJ68" t="n">
         <v>4</v>
       </c>
-      <c r="AI68" t="n">
+      <c r="AK68" t="n">
         <v>0.2510288065843622</v>
       </c>
-      <c r="AJ68" t="n">
+      <c r="AL68" t="n">
         <v>0.459016393442623</v>
       </c>
-      <c r="AK68" t="n">
+      <c r="AM68" t="n">
         <v>1.32183908045977</v>
       </c>
-      <c r="AL68" t="n">
+      <c r="AN68" t="n">
         <v>2</v>
       </c>
-      <c r="AM68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>1</v>
-      </c>
       <c r="AO68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9382,33 +9794,39 @@
         <v>1.418604651162791</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="AG69" t="n">
+        <v>197</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="n">
         <v>0.5177664974619289</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AJ69" t="n">
         <v>4</v>
       </c>
-      <c r="AI69" t="n">
+      <c r="AK69" t="n">
         <v>0.3705583756345178</v>
       </c>
-      <c r="AJ69" t="n">
+      <c r="AL69" t="n">
         <v>0.410958904109589</v>
       </c>
-      <c r="AK69" t="n">
+      <c r="AM69" t="n">
         <v>1.324561403508772</v>
       </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>0</v>
-      </c>
       <c r="AN69" t="n">
         <v>0</v>
       </c>
       <c r="AO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9511,33 +9929,39 @@
         <v>1.187214611872146</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AG70" t="n">
+        <v>147</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="n">
         <v>0.3673469387755102</v>
       </c>
-      <c r="AH70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI70" t="n">
+      <c r="AJ70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK70" t="n">
         <v>0.1700680272108843</v>
       </c>
-      <c r="AJ70" t="n">
+      <c r="AL70" t="n">
         <v>0.44</v>
       </c>
-      <c r="AK70" t="n">
+      <c r="AM70" t="n">
         <v>1.358974358974359</v>
       </c>
-      <c r="AL70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>0</v>
-      </c>
       <c r="AN70" t="n">
         <v>1</v>
       </c>
       <c r="AO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9640,33 +10064,39 @@
         <v>1.502183406113537</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="AG71" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="n">
         <v>0.5461538461538461</v>
       </c>
-      <c r="AH71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI71" t="n">
+      <c r="AJ71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK71" t="n">
         <v>0.1846153846153846</v>
       </c>
-      <c r="AJ71" t="n">
+      <c r="AL71" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="AK71" t="n">
+      <c r="AM71" t="n">
         <v>1.342857142857143</v>
       </c>
-      <c r="AL71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>1</v>
-      </c>
       <c r="AN71" t="n">
         <v>1</v>
       </c>
       <c r="AO71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9769,33 +10199,39 @@
         <v>1.368794326241135</v>
       </c>
       <c r="AF72" t="n">
+        <v>386</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH72" t="n">
         <v>0.005555555555555556</v>
       </c>
-      <c r="AG72" t="n">
+      <c r="AI72" t="n">
         <v>0.4722222222222222</v>
       </c>
-      <c r="AH72" t="n">
+      <c r="AJ72" t="n">
         <v>3</v>
       </c>
-      <c r="AI72" t="n">
+      <c r="AK72" t="n">
         <v>0.5388888888888889</v>
       </c>
-      <c r="AJ72" t="n">
+      <c r="AL72" t="n">
         <v>0.3917525773195876</v>
       </c>
-      <c r="AK72" t="n">
+      <c r="AM72" t="n">
         <v>1.319444444444444</v>
       </c>
-      <c r="AL72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
       <c r="AN72" t="n">
         <v>1</v>
       </c>
       <c r="AO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9898,33 +10334,39 @@
         <v>1.32</v>
       </c>
       <c r="AF73" t="n">
+        <v>462</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>220</v>
+      </c>
+      <c r="AH73" t="n">
         <v>0.004545454545454545</v>
       </c>
-      <c r="AG73" t="n">
+      <c r="AI73" t="n">
         <v>0.4727272727272727</v>
       </c>
-      <c r="AH73" t="n">
+      <c r="AJ73" t="n">
         <v>2</v>
       </c>
-      <c r="AI73" t="n">
+      <c r="AK73" t="n">
         <v>0.2636363636363636</v>
       </c>
-      <c r="AJ73" t="n">
+      <c r="AL73" t="n">
         <v>0.3620689655172414</v>
       </c>
-      <c r="AK73" t="n">
+      <c r="AM73" t="n">
         <v>1.233333333333333</v>
       </c>
-      <c r="AL73" t="n">
+      <c r="AN73" t="n">
         <v>2</v>
       </c>
-      <c r="AM73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>1</v>
-      </c>
       <c r="AO73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10027,33 +10469,39 @@
         <v>1.329004329004329</v>
       </c>
       <c r="AF74" t="n">
+        <v>307</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>145</v>
+      </c>
+      <c r="AH74" t="n">
         <v>0.02068965517241379</v>
       </c>
-      <c r="AG74" t="n">
+      <c r="AI74" t="n">
         <v>0.4896551724137931</v>
       </c>
-      <c r="AH74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI74" t="n">
+      <c r="AJ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK74" t="n">
         <v>0.02758620689655172</v>
       </c>
-      <c r="AJ74" t="n">
+      <c r="AL74" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK74" t="n">
+      <c r="AM74" t="n">
         <v>1.444444444444444</v>
       </c>
-      <c r="AL74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>0</v>
-      </c>
       <c r="AN74" t="n">
         <v>1</v>
       </c>
       <c r="AO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10156,33 +10604,39 @@
         <v>1.530413625304136</v>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="AG75" t="n">
+        <v>249</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
         <v>0.6265060240963856</v>
       </c>
-      <c r="AH75" t="n">
+      <c r="AJ75" t="n">
         <v>4</v>
       </c>
-      <c r="AI75" t="n">
+      <c r="AK75" t="n">
         <v>0.1887550200803213</v>
       </c>
-      <c r="AJ75" t="n">
+      <c r="AL75" t="n">
         <v>0.5531914893617021</v>
       </c>
-      <c r="AK75" t="n">
+      <c r="AM75" t="n">
         <v>1.428571428571429</v>
       </c>
-      <c r="AL75" t="n">
+      <c r="AN75" t="n">
         <v>3</v>
       </c>
-      <c r="AM75" t="n">
+      <c r="AO75" t="n">
         <v>2</v>
       </c>
-      <c r="AN75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO75" t="n">
+      <c r="AP75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10285,33 +10739,39 @@
         <v>1.351724137931035</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="AG76" t="n">
+        <v>181</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI76" t="n">
         <v>0.4530386740331492</v>
       </c>
-      <c r="AH76" t="n">
+      <c r="AJ76" t="n">
         <v>2</v>
       </c>
-      <c r="AI76" t="n">
+      <c r="AK76" t="n">
         <v>0.5580110497237569</v>
       </c>
-      <c r="AJ76" t="n">
+      <c r="AL76" t="n">
         <v>0.3168316831683168</v>
       </c>
-      <c r="AK76" t="n">
+      <c r="AM76" t="n">
         <v>1.16025641025641</v>
       </c>
-      <c r="AL76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>0</v>
-      </c>
       <c r="AN76" t="n">
         <v>1</v>
       </c>
       <c r="AO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10414,33 +10874,39 @@
         <v>1.47887323943662</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="AG77" t="n">
+        <v>123</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI77" t="n">
         <v>0.5934959349593496</v>
       </c>
-      <c r="AH77" t="n">
+      <c r="AJ77" t="n">
         <v>2</v>
       </c>
-      <c r="AI77" t="n">
+      <c r="AK77" t="n">
         <v>0.2032520325203252</v>
       </c>
-      <c r="AJ77" t="n">
+      <c r="AL77" t="n">
         <v>0.32</v>
       </c>
-      <c r="AK77" t="n">
+      <c r="AM77" t="n">
         <v>1.245283018867924</v>
       </c>
-      <c r="AL77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>0</v>
-      </c>
       <c r="AN77" t="n">
         <v>1</v>
       </c>
       <c r="AO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10543,33 +11009,39 @@
         <v>1.231034482758621</v>
       </c>
       <c r="AF78" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="AG78" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="n">
         <v>0.4079601990049751</v>
       </c>
-      <c r="AH78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI78" t="n">
+      <c r="AJ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK78" t="n">
         <v>0.109452736318408</v>
       </c>
-      <c r="AJ78" t="n">
+      <c r="AL78" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="AK78" t="n">
+      <c r="AM78" t="n">
         <v>1.178571428571429</v>
       </c>
-      <c r="AL78" t="n">
+      <c r="AN78" t="n">
         <v>2</v>
       </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>1</v>
-      </c>
       <c r="AO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10672,33 +11144,39 @@
         <v>1.363344051446945</v>
       </c>
       <c r="AF79" t="n">
+        <v>424</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>184</v>
+      </c>
+      <c r="AH79" t="n">
         <v>0.005434782608695652</v>
       </c>
-      <c r="AG79" t="n">
+      <c r="AI79" t="n">
         <v>0.5163043478260869</v>
       </c>
-      <c r="AH79" t="n">
+      <c r="AJ79" t="n">
         <v>2</v>
       </c>
-      <c r="AI79" t="n">
+      <c r="AK79" t="n">
         <v>0.1793478260869565</v>
       </c>
-      <c r="AJ79" t="n">
+      <c r="AL79" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="AK79" t="n">
+      <c r="AM79" t="n">
         <v>1.140625</v>
       </c>
-      <c r="AL79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>1</v>
-      </c>
       <c r="AN79" t="n">
         <v>1</v>
       </c>
       <c r="AO79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10801,33 +11279,39 @@
         <v>1.350877192982456</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AG80" t="n">
+        <v>39</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="n">
         <v>0.4871794871794872</v>
       </c>
-      <c r="AH80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI80" t="n">
+      <c r="AJ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK80" t="n">
         <v>0.358974358974359</v>
       </c>
-      <c r="AJ80" t="n">
+      <c r="AL80" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AK80" t="n">
+      <c r="AM80" t="n">
         <v>1.315789473684211</v>
       </c>
-      <c r="AL80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>1</v>
-      </c>
       <c r="AN80" t="n">
         <v>1</v>
       </c>
       <c r="AO80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10930,33 +11414,39 @@
         <v>1.32992700729927</v>
       </c>
       <c r="AF81" t="n">
+        <v>911</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>425</v>
+      </c>
+      <c r="AH81" t="n">
         <v>0.004705882352941176</v>
       </c>
-      <c r="AG81" t="n">
+      <c r="AI81" t="n">
         <v>0.4729411764705883</v>
       </c>
-      <c r="AH81" t="n">
+      <c r="AJ81" t="n">
         <v>3</v>
       </c>
-      <c r="AI81" t="n">
+      <c r="AK81" t="n">
         <v>0.3035294117647059</v>
       </c>
-      <c r="AJ81" t="n">
+      <c r="AL81" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AK81" t="n">
+      <c r="AM81" t="n">
         <v>1.208333333333333</v>
       </c>
-      <c r="AL81" t="n">
+      <c r="AN81" t="n">
         <v>8</v>
       </c>
-      <c r="AM81" t="n">
+      <c r="AO81" t="n">
         <v>5</v>
       </c>
-      <c r="AN81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO81" t="n">
+      <c r="AP81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11059,33 +11549,39 @@
         <v>1.315270935960591</v>
       </c>
       <c r="AF82" t="n">
+        <v>534</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>253</v>
+      </c>
+      <c r="AH82" t="n">
         <v>0.007905138339920948</v>
       </c>
-      <c r="AG82" t="n">
+      <c r="AI82" t="n">
         <v>0.5098814229249012</v>
       </c>
-      <c r="AH82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI82" t="n">
+      <c r="AJ82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK82" t="n">
         <v>0.233201581027668</v>
       </c>
-      <c r="AJ82" t="n">
+      <c r="AL82" t="n">
         <v>0.5423728813559322</v>
       </c>
-      <c r="AK82" t="n">
+      <c r="AM82" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL82" t="n">
+      <c r="AN82" t="n">
         <v>3</v>
       </c>
-      <c r="AM82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>1</v>
-      </c>
       <c r="AO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11188,33 +11684,39 @@
         <v>1.509852216748768</v>
       </c>
       <c r="AF83" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="AG83" t="n">
+        <v>246</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI83" t="n">
         <v>0.6219512195121951</v>
       </c>
-      <c r="AH83" t="n">
+      <c r="AJ83" t="n">
         <v>2</v>
       </c>
-      <c r="AI83" t="n">
+      <c r="AK83" t="n">
         <v>0.2154471544715447</v>
       </c>
-      <c r="AJ83" t="n">
+      <c r="AL83" t="n">
         <v>0.6226415094339622</v>
       </c>
-      <c r="AK83" t="n">
+      <c r="AM83" t="n">
         <v>1.505882352941176</v>
       </c>
-      <c r="AL83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>0</v>
-      </c>
       <c r="AN83" t="n">
         <v>1</v>
       </c>
       <c r="AO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11317,33 +11819,39 @@
         <v>1.505780346820809</v>
       </c>
       <c r="AF84" t="n">
+        <v>521</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>178</v>
+      </c>
+      <c r="AH84" t="n">
         <v>0.005617977528089887</v>
       </c>
-      <c r="AG84" t="n">
+      <c r="AI84" t="n">
         <v>0.5674157303370787</v>
       </c>
-      <c r="AH84" t="n">
+      <c r="AJ84" t="n">
         <v>2</v>
       </c>
-      <c r="AI84" t="n">
+      <c r="AK84" t="n">
         <v>0.4550561797752809</v>
       </c>
-      <c r="AJ84" t="n">
+      <c r="AL84" t="n">
         <v>0.4938271604938271</v>
       </c>
-      <c r="AK84" t="n">
+      <c r="AM84" t="n">
         <v>1.448717948717949</v>
       </c>
-      <c r="AL84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>0</v>
-      </c>
       <c r="AN84" t="n">
         <v>1</v>
       </c>
       <c r="AO84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11446,33 +11954,39 @@
         <v>1.533536585365854</v>
       </c>
       <c r="AF85" t="n">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="AG85" t="n">
+        <v>190</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI85" t="n">
         <v>0.6157894736842106</v>
       </c>
-      <c r="AH85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI85" t="n">
+      <c r="AJ85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK85" t="n">
         <v>0.2947368421052631</v>
       </c>
-      <c r="AJ85" t="n">
+      <c r="AL85" t="n">
         <v>0.6071428571428571</v>
       </c>
-      <c r="AK85" t="n">
+      <c r="AM85" t="n">
         <v>1.495145631067961</v>
       </c>
-      <c r="AL85" t="n">
+      <c r="AN85" t="n">
         <v>2</v>
       </c>
-      <c r="AM85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>1</v>
-      </c>
       <c r="AO85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11575,33 +12089,39 @@
         <v>1.433333333333333</v>
       </c>
       <c r="AF86" t="n">
+        <v>473</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH86" t="n">
         <v>0.004975124378109453</v>
       </c>
-      <c r="AG86" t="n">
+      <c r="AI86" t="n">
         <v>0.5323383084577115</v>
       </c>
-      <c r="AH86" t="n">
+      <c r="AJ86" t="n">
         <v>2</v>
       </c>
-      <c r="AI86" t="n">
+      <c r="AK86" t="n">
         <v>0.4328358208955224</v>
       </c>
-      <c r="AJ86" t="n">
+      <c r="AL86" t="n">
         <v>0.3793103448275862</v>
       </c>
-      <c r="AK86" t="n">
+      <c r="AM86" t="n">
         <v>1.204379562043796</v>
       </c>
-      <c r="AL86" t="n">
+      <c r="AN86" t="n">
         <v>2</v>
       </c>
-      <c r="AM86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>1</v>
-      </c>
       <c r="AO86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11704,33 +12224,39 @@
         <v>1.495297805642633</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="AG87" t="n">
+        <v>199</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI87" t="n">
         <v>0.5979899497487438</v>
       </c>
-      <c r="AH87" t="n">
+      <c r="AJ87" t="n">
         <v>2</v>
       </c>
-      <c r="AI87" t="n">
+      <c r="AK87" t="n">
         <v>0.3316582914572864</v>
       </c>
-      <c r="AJ87" t="n">
+      <c r="AL87" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="AK87" t="n">
+      <c r="AM87" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AL87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>1</v>
-      </c>
       <c r="AN87" t="n">
         <v>1</v>
       </c>
       <c r="AO87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11833,33 +12359,39 @@
         <v>1.463215258855586</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="AG88" t="n">
+        <v>202</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
         <v>0.5841584158415841</v>
       </c>
-      <c r="AH88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI88" t="n">
+      <c r="AJ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK88" t="n">
         <v>0.3762376237623762</v>
       </c>
-      <c r="AJ88" t="n">
+      <c r="AL88" t="n">
         <v>0.4473684210526316</v>
       </c>
-      <c r="AK88" t="n">
+      <c r="AM88" t="n">
         <v>1.318518518518518</v>
       </c>
-      <c r="AL88" t="n">
+      <c r="AN88" t="n">
         <v>2</v>
       </c>
-      <c r="AM88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>1</v>
-      </c>
       <c r="AO88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11962,33 +12494,39 @@
         <v>1.352808988764045</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="AG89" t="n">
+        <v>269</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" t="n">
         <v>0.4795539033457249</v>
       </c>
-      <c r="AH89" t="n">
+      <c r="AJ89" t="n">
         <v>2</v>
       </c>
-      <c r="AI89" t="n">
+      <c r="AK89" t="n">
         <v>0.4869888475836431</v>
       </c>
-      <c r="AJ89" t="n">
+      <c r="AL89" t="n">
         <v>0.4198473282442748</v>
       </c>
-      <c r="AK89" t="n">
+      <c r="AM89" t="n">
         <v>1.24537037037037</v>
       </c>
-      <c r="AL89" t="n">
+      <c r="AN89" t="n">
         <v>3</v>
       </c>
-      <c r="AM89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>1</v>
-      </c>
       <c r="AO89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12091,33 +12629,39 @@
         <v>1.345114345114345</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="AG90" t="n">
+        <v>308</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI90" t="n">
         <v>0.5097402597402597</v>
       </c>
-      <c r="AH90" t="n">
+      <c r="AJ90" t="n">
         <v>2</v>
       </c>
-      <c r="AI90" t="n">
+      <c r="AK90" t="n">
         <v>0.3993506493506493</v>
       </c>
-      <c r="AJ90" t="n">
+      <c r="AL90" t="n">
         <v>0.4634146341463415</v>
       </c>
-      <c r="AK90" t="n">
+      <c r="AM90" t="n">
         <v>1.310679611650486</v>
       </c>
-      <c r="AL90" t="n">
+      <c r="AN90" t="n">
         <v>2</v>
       </c>
-      <c r="AM90" t="n">
+      <c r="AO90" t="n">
         <v>2</v>
       </c>
-      <c r="AN90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO90" t="n">
+      <c r="AP90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12220,33 +12764,39 @@
         <v>1.474137931034483</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="AG91" t="n">
+        <v>205</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI91" t="n">
         <v>0.551219512195122</v>
       </c>
-      <c r="AH91" t="n">
+      <c r="AJ91" t="n">
         <v>2</v>
       </c>
-      <c r="AI91" t="n">
+      <c r="AK91" t="n">
         <v>0.4829268292682927</v>
       </c>
-      <c r="AJ91" t="n">
+      <c r="AL91" t="n">
         <v>0.5454545454545454</v>
       </c>
-      <c r="AK91" t="n">
+      <c r="AM91" t="n">
         <v>1.49390243902439</v>
       </c>
-      <c r="AL91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>0</v>
-      </c>
       <c r="AN91" t="n">
         <v>0</v>
       </c>
       <c r="AO91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12349,33 +12899,39 @@
         <v>1.25130890052356</v>
       </c>
       <c r="AF92" t="n">
+        <v>478</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>247</v>
+      </c>
+      <c r="AH92" t="n">
         <v>0.008097165991902834</v>
       </c>
-      <c r="AG92" t="n">
+      <c r="AI92" t="n">
         <v>0.4331983805668016</v>
       </c>
-      <c r="AH92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI92" t="n">
+      <c r="AJ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK92" t="n">
         <v>0.2145748987854251</v>
       </c>
-      <c r="AJ92" t="n">
+      <c r="AL92" t="n">
         <v>0.2452830188679245</v>
       </c>
-      <c r="AK92" t="n">
+      <c r="AM92" t="n">
         <v>1.151162790697674</v>
       </c>
-      <c r="AL92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>0</v>
-      </c>
       <c r="AN92" t="n">
         <v>0</v>
       </c>
       <c r="AO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12478,33 +13034,39 @@
         <v>1.173020527859238</v>
       </c>
       <c r="AF93" t="n">
+        <v>400</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>229</v>
+      </c>
+      <c r="AH93" t="n">
         <v>0.008733624454148471</v>
       </c>
-      <c r="AG93" t="n">
+      <c r="AI93" t="n">
         <v>0.388646288209607</v>
       </c>
-      <c r="AH93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI93" t="n">
+      <c r="AJ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK93" t="n">
         <v>0.3100436681222707</v>
       </c>
-      <c r="AJ93" t="n">
+      <c r="AL93" t="n">
         <v>0.352112676056338</v>
       </c>
-      <c r="AK93" t="n">
+      <c r="AM93" t="n">
         <v>1.237704918032787</v>
       </c>
-      <c r="AL93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>1</v>
-      </c>
       <c r="AN93" t="n">
         <v>1</v>
       </c>
       <c r="AO93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12607,33 +13169,39 @@
         <v>1.455263157894737</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="AG94" t="n">
+        <v>249</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI94" t="n">
         <v>0.570281124497992</v>
       </c>
-      <c r="AH94" t="n">
+      <c r="AJ94" t="n">
         <v>2</v>
       </c>
-      <c r="AI94" t="n">
+      <c r="AK94" t="n">
         <v>0.248995983935743</v>
       </c>
-      <c r="AJ94" t="n">
+      <c r="AL94" t="n">
         <v>0.3548387096774194</v>
       </c>
-      <c r="AK94" t="n">
+      <c r="AM94" t="n">
         <v>1.287234042553191</v>
       </c>
-      <c r="AL94" t="n">
+      <c r="AN94" t="n">
         <v>2</v>
       </c>
-      <c r="AM94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>1</v>
-      </c>
       <c r="AO94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12736,33 +13304,39 @@
         <v>1.307106598984772</v>
       </c>
       <c r="AF95" t="n">
+        <v>515</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>257</v>
+      </c>
+      <c r="AH95" t="n">
         <v>0.007782101167315175</v>
       </c>
-      <c r="AG95" t="n">
+      <c r="AI95" t="n">
         <v>0.490272373540856</v>
       </c>
-      <c r="AH95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI95" t="n">
+      <c r="AJ95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK95" t="n">
         <v>0.2023346303501946</v>
       </c>
-      <c r="AJ95" t="n">
+      <c r="AL95" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK95" t="n">
+      <c r="AM95" t="n">
         <v>1.352272727272727</v>
       </c>
-      <c r="AL95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>0</v>
-      </c>
       <c r="AN95" t="n">
         <v>1</v>
       </c>
       <c r="AO95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12865,33 +13439,39 @@
         <v>1.34971098265896</v>
       </c>
       <c r="AF96" t="n">
+        <v>467</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>209</v>
+      </c>
+      <c r="AH96" t="n">
         <v>0.004784688995215311</v>
       </c>
-      <c r="AG96" t="n">
+      <c r="AI96" t="n">
         <v>0.4880382775119617</v>
       </c>
-      <c r="AH96" t="n">
+      <c r="AJ96" t="n">
         <v>2</v>
       </c>
-      <c r="AI96" t="n">
+      <c r="AK96" t="n">
         <v>0.4593301435406699</v>
       </c>
-      <c r="AJ96" t="n">
+      <c r="AL96" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="AK96" t="n">
+      <c r="AM96" t="n">
         <v>1.236486486486486</v>
       </c>
-      <c r="AL96" t="n">
+      <c r="AN96" t="n">
         <v>2</v>
       </c>
-      <c r="AM96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>1</v>
-      </c>
       <c r="AO96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12994,33 +13574,39 @@
         <v>1.431077694235589</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="AG97" t="n">
+        <v>262</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI97" t="n">
         <v>0.5343511450381679</v>
       </c>
-      <c r="AH97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI97" t="n">
+      <c r="AJ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK97" t="n">
         <v>0.2175572519083969</v>
       </c>
-      <c r="AJ97" t="n">
+      <c r="AL97" t="n">
         <v>0.543859649122807</v>
       </c>
-      <c r="AK97" t="n">
+      <c r="AM97" t="n">
         <v>1.423529411764706</v>
       </c>
-      <c r="AL97" t="n">
+      <c r="AN97" t="n">
         <v>2</v>
       </c>
-      <c r="AM97" t="n">
+      <c r="AO97" t="n">
         <v>2</v>
       </c>
-      <c r="AN97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO97" t="n">
+      <c r="AP97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13123,33 +13709,39 @@
         <v>1.383040935672515</v>
       </c>
       <c r="AF98" t="n">
+        <v>473</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>213</v>
+      </c>
+      <c r="AH98" t="n">
         <v>0.004694835680751174</v>
       </c>
-      <c r="AG98" t="n">
+      <c r="AI98" t="n">
         <v>0.4835680751173709</v>
       </c>
-      <c r="AH98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI98" t="n">
+      <c r="AJ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK98" t="n">
         <v>0.3896713615023474</v>
       </c>
-      <c r="AJ98" t="n">
+      <c r="AL98" t="n">
         <v>0.3734939759036144</v>
       </c>
-      <c r="AK98" t="n">
+      <c r="AM98" t="n">
         <v>1.287878787878788</v>
       </c>
-      <c r="AL98" t="n">
+      <c r="AN98" t="n">
         <v>3</v>
       </c>
-      <c r="AM98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>1</v>
-      </c>
       <c r="AO98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13252,33 +13844,39 @@
         <v>1.29620253164557</v>
       </c>
       <c r="AF99" t="n">
+        <v>512</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>260</v>
+      </c>
+      <c r="AH99" t="n">
         <v>0.01153846153846154</v>
       </c>
-      <c r="AG99" t="n">
+      <c r="AI99" t="n">
         <v>0.4576923076923077</v>
       </c>
-      <c r="AH99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI99" t="n">
+      <c r="AJ99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK99" t="n">
         <v>0.3538461538461539</v>
       </c>
-      <c r="AJ99" t="n">
+      <c r="AL99" t="n">
         <v>0.391304347826087</v>
       </c>
-      <c r="AK99" t="n">
+      <c r="AM99" t="n">
         <v>1.299319727891157</v>
       </c>
-      <c r="AL99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM99" t="n">
-        <v>0</v>
-      </c>
       <c r="AN99" t="n">
         <v>1</v>
       </c>
       <c r="AO99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13381,33 +13979,39 @@
         <v>1.407051282051282</v>
       </c>
       <c r="AF100" t="n">
+        <v>439</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH100" t="n">
         <v>0.005555555555555556</v>
       </c>
-      <c r="AG100" t="n">
+      <c r="AI100" t="n">
         <v>0.5277777777777778</v>
       </c>
-      <c r="AH100" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI100" t="n">
+      <c r="AJ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK100" t="n">
         <v>0.2166666666666667</v>
       </c>
-      <c r="AJ100" t="n">
+      <c r="AL100" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AK100" t="n">
+      <c r="AM100" t="n">
         <v>1.263157894736842</v>
       </c>
-      <c r="AL100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>0</v>
-      </c>
       <c r="AN100" t="n">
         <v>0</v>
       </c>
       <c r="AO100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13510,33 +14114,39 @@
         <v>1.350132625994695</v>
       </c>
       <c r="AF101" t="n">
+        <v>509</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>257</v>
+      </c>
+      <c r="AH101" t="n">
         <v>0.007782101167315175</v>
       </c>
-      <c r="AG101" t="n">
+      <c r="AI101" t="n">
         <v>0.4669260700389105</v>
       </c>
-      <c r="AH101" t="n">
+      <c r="AJ101" t="n">
         <v>2</v>
       </c>
-      <c r="AI101" t="n">
+      <c r="AK101" t="n">
         <v>0.2879377431906615</v>
       </c>
-      <c r="AJ101" t="n">
+      <c r="AL101" t="n">
         <v>0.3513513513513514</v>
       </c>
-      <c r="AK101" t="n">
+      <c r="AM101" t="n">
         <v>1.260504201680672</v>
       </c>
-      <c r="AL101" t="n">
+      <c r="AN101" t="n">
         <v>2</v>
       </c>
-      <c r="AM101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>1</v>
-      </c>
       <c r="AO101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13639,33 +14249,39 @@
         <v>1.526315789473684</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="AG102" t="n">
+        <v>121</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI102" t="n">
         <v>0.6528925619834711</v>
       </c>
-      <c r="AH102" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI102" t="n">
+      <c r="AJ102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK102" t="n">
         <v>0.3801652892561984</v>
       </c>
-      <c r="AJ102" t="n">
+      <c r="AL102" t="n">
         <v>0.5217391304347826</v>
       </c>
-      <c r="AK102" t="n">
+      <c r="AM102" t="n">
         <v>1.317647058823529</v>
       </c>
-      <c r="AL102" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM102" t="n">
-        <v>1</v>
-      </c>
       <c r="AN102" t="n">
         <v>1</v>
       </c>
       <c r="AO102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13768,33 +14384,39 @@
         <v>1.510714285714286</v>
       </c>
       <c r="AF103" t="n">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="AG103" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI103" t="n">
         <v>0.7019867549668874</v>
       </c>
-      <c r="AH103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI103" t="n">
+      <c r="AJ103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK103" t="n">
         <v>0.3774834437086093</v>
       </c>
-      <c r="AJ103" t="n">
+      <c r="AL103" t="n">
         <v>0.5614035087719298</v>
       </c>
-      <c r="AK103" t="n">
+      <c r="AM103" t="n">
         <v>1.277777777777778</v>
       </c>
-      <c r="AL103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>1</v>
-      </c>
       <c r="AN103" t="n">
         <v>1</v>
       </c>
       <c r="AO103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13897,33 +14519,39 @@
         <v>1.447457627118644</v>
       </c>
       <c r="AF104" t="n">
+        <v>427</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>173</v>
+      </c>
+      <c r="AH104" t="n">
         <v>0.0115606936416185</v>
       </c>
-      <c r="AG104" t="n">
+      <c r="AI104" t="n">
         <v>0.5953757225433526</v>
       </c>
-      <c r="AH104" t="n">
+      <c r="AJ104" t="n">
         <v>2</v>
       </c>
-      <c r="AI104" t="n">
+      <c r="AK104" t="n">
         <v>0.3583815028901734</v>
       </c>
-      <c r="AJ104" t="n">
+      <c r="AL104" t="n">
         <v>0.5967741935483871</v>
       </c>
-      <c r="AK104" t="n">
+      <c r="AM104" t="n">
         <v>1.415094339622641</v>
       </c>
-      <c r="AL104" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM104" t="n">
-        <v>0</v>
-      </c>
       <c r="AN104" t="n">
         <v>1</v>
       </c>
       <c r="AO104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14026,33 +14654,39 @@
         <v>1.420711974110032</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="AG105" t="n">
+        <v>184</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI105" t="n">
         <v>0.5434782608695652</v>
       </c>
-      <c r="AH105" t="n">
+      <c r="AJ105" t="n">
         <v>2</v>
       </c>
-      <c r="AI105" t="n">
+      <c r="AK105" t="n">
         <v>0.483695652173913</v>
       </c>
-      <c r="AJ105" t="n">
+      <c r="AL105" t="n">
         <v>0.5280898876404494</v>
       </c>
-      <c r="AK105" t="n">
+      <c r="AM105" t="n">
         <v>1.36986301369863</v>
       </c>
-      <c r="AL105" t="n">
+      <c r="AN105" t="n">
         <v>2</v>
       </c>
-      <c r="AM105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>1</v>
-      </c>
       <c r="AO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14155,33 +14789,39 @@
         <v>1.341772151898734</v>
       </c>
       <c r="AF106" t="n">
+        <v>424</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH106" t="n">
         <v>0.005128205128205128</v>
       </c>
-      <c r="AG106" t="n">
+      <c r="AI106" t="n">
         <v>0.4717948717948718</v>
       </c>
-      <c r="AH106" t="n">
+      <c r="AJ106" t="n">
         <v>2</v>
       </c>
-      <c r="AI106" t="n">
+      <c r="AK106" t="n">
         <v>0.4512820512820513</v>
       </c>
-      <c r="AJ106" t="n">
+      <c r="AL106" t="n">
         <v>0.3977272727272727</v>
       </c>
-      <c r="AK106" t="n">
+      <c r="AM106" t="n">
         <v>1.245033112582781</v>
       </c>
-      <c r="AL106" t="n">
+      <c r="AN106" t="n">
         <v>3</v>
       </c>
-      <c r="AM106" t="n">
+      <c r="AO106" t="n">
         <v>2</v>
       </c>
-      <c r="AN106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO106" t="n">
+      <c r="AP106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14284,33 +14924,39 @@
         <v>1.453333333333333</v>
       </c>
       <c r="AF107" t="n">
+        <v>436</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>169</v>
+      </c>
+      <c r="AH107" t="n">
         <v>0.01183431952662722</v>
       </c>
-      <c r="AG107" t="n">
+      <c r="AI107" t="n">
         <v>0.5739644970414202</v>
       </c>
-      <c r="AH107" t="n">
+      <c r="AJ107" t="n">
         <v>2</v>
       </c>
-      <c r="AI107" t="n">
+      <c r="AK107" t="n">
         <v>0.4733727810650887</v>
       </c>
-      <c r="AJ107" t="n">
+      <c r="AL107" t="n">
         <v>0.525</v>
       </c>
-      <c r="AK107" t="n">
+      <c r="AM107" t="n">
         <v>1.404109589041096</v>
       </c>
-      <c r="AL107" t="n">
+      <c r="AN107" t="n">
         <v>3</v>
       </c>
-      <c r="AM107" t="n">
+      <c r="AO107" t="n">
         <v>2</v>
       </c>
-      <c r="AN107" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO107" t="n">
+      <c r="AP107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14413,33 +15059,39 @@
         <v>1.56386292834891</v>
       </c>
       <c r="AF108" t="n">
+        <v>502</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>179</v>
+      </c>
+      <c r="AH108" t="n">
         <v>0.00558659217877095</v>
       </c>
-      <c r="AG108" t="n">
+      <c r="AI108" t="n">
         <v>0.664804469273743</v>
       </c>
-      <c r="AH108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI108" t="n">
+      <c r="AJ108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK108" t="n">
         <v>0.4078212290502793</v>
       </c>
-      <c r="AJ108" t="n">
+      <c r="AL108" t="n">
         <v>0.6575342465753424</v>
       </c>
-      <c r="AK108" t="n">
+      <c r="AM108" t="n">
         <v>1.52054794520548</v>
       </c>
-      <c r="AL108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM108" t="n">
-        <v>0</v>
-      </c>
       <c r="AN108" t="n">
         <v>1</v>
       </c>
       <c r="AO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14542,33 +15194,39 @@
         <v>1.558479532163743</v>
       </c>
       <c r="AF109" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="AG109" t="n">
+        <v>187</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI109" t="n">
         <v>0.6684491978609626</v>
       </c>
-      <c r="AH109" t="n">
+      <c r="AJ109" t="n">
         <v>2</v>
       </c>
-      <c r="AI109" t="n">
+      <c r="AK109" t="n">
         <v>0.4598930481283423</v>
       </c>
-      <c r="AJ109" t="n">
+      <c r="AL109" t="n">
         <v>0.6976744186046512</v>
       </c>
-      <c r="AK109" t="n">
+      <c r="AM109" t="n">
         <v>1.602409638554217</v>
       </c>
-      <c r="AL109" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>1</v>
-      </c>
       <c r="AN109" t="n">
         <v>1</v>
       </c>
       <c r="AO109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14671,33 +15329,39 @@
         <v>1.439344262295082</v>
       </c>
       <c r="AF110" t="n">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="AG110" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI110" t="n">
         <v>0.5333333333333333</v>
       </c>
-      <c r="AH110" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI110" t="n">
+      <c r="AJ110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK110" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="AJ110" t="n">
+      <c r="AL110" t="n">
         <v>0.4</v>
       </c>
-      <c r="AK110" t="n">
+      <c r="AM110" t="n">
         <v>1.352941176470588</v>
       </c>
-      <c r="AL110" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM110" t="n">
-        <v>0</v>
-      </c>
       <c r="AN110" t="n">
         <v>1</v>
       </c>
       <c r="AO110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14800,33 +15464,39 @@
         <v>1.407534246575342</v>
       </c>
       <c r="AF111" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="AG111" t="n">
+        <v>169</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI111" t="n">
         <v>0.5680473372781065</v>
       </c>
-      <c r="AH111" t="n">
+      <c r="AJ111" t="n">
         <v>2</v>
       </c>
-      <c r="AI111" t="n">
+      <c r="AK111" t="n">
         <v>0.5088757396449705</v>
       </c>
-      <c r="AJ111" t="n">
+      <c r="AL111" t="n">
         <v>0.4883720930232558</v>
       </c>
-      <c r="AK111" t="n">
+      <c r="AM111" t="n">
         <v>1.331288343558282</v>
       </c>
-      <c r="AL111" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM111" t="n">
-        <v>1</v>
-      </c>
       <c r="AN111" t="n">
         <v>1</v>
       </c>
       <c r="AO111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14929,33 +15599,39 @@
         <v>1.431095406360424</v>
       </c>
       <c r="AF112" t="n">
+        <v>405</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>174</v>
+      </c>
+      <c r="AH112" t="n">
         <v>0.005747126436781609</v>
       </c>
-      <c r="AG112" t="n">
+      <c r="AI112" t="n">
         <v>0.5747126436781609</v>
       </c>
-      <c r="AH112" t="n">
+      <c r="AJ112" t="n">
         <v>3</v>
       </c>
-      <c r="AI112" t="n">
+      <c r="AK112" t="n">
         <v>0.2758620689655172</v>
       </c>
-      <c r="AJ112" t="n">
+      <c r="AL112" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="AK112" t="n">
+      <c r="AM112" t="n">
         <v>1.197530864197531</v>
       </c>
-      <c r="AL112" t="n">
+      <c r="AN112" t="n">
         <v>2</v>
       </c>
-      <c r="AM112" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN112" t="n">
-        <v>1</v>
-      </c>
       <c r="AO112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15058,33 +15734,39 @@
         <v>1.545171339563863</v>
       </c>
       <c r="AF113" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="AG113" t="n">
+        <v>182</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI113" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="AH113" t="n">
+      <c r="AJ113" t="n">
         <v>2</v>
       </c>
-      <c r="AI113" t="n">
+      <c r="AK113" t="n">
         <v>0.4725274725274725</v>
       </c>
-      <c r="AJ113" t="n">
+      <c r="AL113" t="n">
         <v>0.5348837209302325</v>
       </c>
-      <c r="AK113" t="n">
+      <c r="AM113" t="n">
         <v>1.509677419354839</v>
       </c>
-      <c r="AL113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM113" t="n">
-        <v>0</v>
-      </c>
       <c r="AN113" t="n">
         <v>0</v>
       </c>
       <c r="AO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15187,33 +15869,39 @@
         <v>1.458083832335329</v>
       </c>
       <c r="AF114" t="n">
+        <v>487</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>176</v>
+      </c>
+      <c r="AH114" t="n">
         <v>0.01136363636363636</v>
       </c>
-      <c r="AG114" t="n">
+      <c r="AI114" t="n">
         <v>0.5681818181818182</v>
       </c>
-      <c r="AH114" t="n">
+      <c r="AJ114" t="n">
         <v>2</v>
       </c>
-      <c r="AI114" t="n">
+      <c r="AK114" t="n">
         <v>0.3977272727272727</v>
       </c>
-      <c r="AJ114" t="n">
+      <c r="AL114" t="n">
         <v>0.4714285714285714</v>
       </c>
-      <c r="AK114" t="n">
+      <c r="AM114" t="n">
         <v>1.328671328671329</v>
       </c>
-      <c r="AL114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM114" t="n">
-        <v>0</v>
-      </c>
       <c r="AN114" t="n">
         <v>0</v>
       </c>
       <c r="AO114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15316,33 +16004,39 @@
         <v>1.431372549019608</v>
       </c>
       <c r="AF115" t="n">
+        <v>511</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>195</v>
+      </c>
+      <c r="AH115" t="n">
         <v>0.005128205128205128</v>
       </c>
-      <c r="AG115" t="n">
+      <c r="AI115" t="n">
         <v>0.5641025641025641</v>
       </c>
-      <c r="AH115" t="n">
+      <c r="AJ115" t="n">
         <v>2</v>
       </c>
-      <c r="AI115" t="n">
+      <c r="AK115" t="n">
         <v>0.3692307692307693</v>
       </c>
-      <c r="AJ115" t="n">
+      <c r="AL115" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="AK115" t="n">
+      <c r="AM115" t="n">
         <v>1.308219178082192</v>
       </c>
-      <c r="AL115" t="n">
+      <c r="AN115" t="n">
         <v>3</v>
       </c>
-      <c r="AM115" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>1</v>
-      </c>
       <c r="AO115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15445,33 +16139,39 @@
         <v>1.515837104072398</v>
       </c>
       <c r="AF116" t="n">
+        <v>335</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH116" t="n">
         <v>0.007936507936507936</v>
       </c>
-      <c r="AG116" t="n">
+      <c r="AI116" t="n">
         <v>0.6587301587301587</v>
       </c>
-      <c r="AH116" t="n">
+      <c r="AJ116" t="n">
         <v>2</v>
       </c>
-      <c r="AI116" t="n">
+      <c r="AK116" t="n">
         <v>0.253968253968254</v>
       </c>
-      <c r="AJ116" t="n">
+      <c r="AL116" t="n">
         <v>0.75</v>
       </c>
-      <c r="AK116" t="n">
+      <c r="AM116" t="n">
         <v>1.578947368421053</v>
       </c>
-      <c r="AL116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM116" t="n">
-        <v>0</v>
-      </c>
       <c r="AN116" t="n">
         <v>1</v>
       </c>
       <c r="AO116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15574,33 +16274,39 @@
         <v>1.541322314049587</v>
       </c>
       <c r="AF117" t="n">
+        <v>373</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>131</v>
+      </c>
+      <c r="AH117" t="n">
         <v>0.007633587786259542</v>
       </c>
-      <c r="AG117" t="n">
+      <c r="AI117" t="n">
         <v>0.6641221374045801</v>
       </c>
-      <c r="AH117" t="n">
+      <c r="AJ117" t="n">
         <v>2</v>
       </c>
-      <c r="AI117" t="n">
+      <c r="AK117" t="n">
         <v>0.4122137404580153</v>
       </c>
-      <c r="AJ117" t="n">
+      <c r="AL117" t="n">
         <v>0.6111111111111112</v>
       </c>
-      <c r="AK117" t="n">
+      <c r="AM117" t="n">
         <v>1.410526315789474</v>
       </c>
-      <c r="AL117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM117" t="n">
-        <v>0</v>
-      </c>
       <c r="AN117" t="n">
         <v>0</v>
       </c>
       <c r="AO117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15703,33 +16409,39 @@
         <v>1.35973597359736</v>
       </c>
       <c r="AF118" t="n">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="AG118" t="n">
+        <v>177</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI118" t="n">
         <v>0.4689265536723164</v>
       </c>
-      <c r="AH118" t="n">
+      <c r="AJ118" t="n">
         <v>2</v>
       </c>
-      <c r="AI118" t="n">
+      <c r="AK118" t="n">
         <v>0.4180790960451977</v>
       </c>
-      <c r="AJ118" t="n">
+      <c r="AL118" t="n">
         <v>0.4054054054054054</v>
       </c>
-      <c r="AK118" t="n">
+      <c r="AM118" t="n">
         <v>1.291970802919708</v>
       </c>
-      <c r="AL118" t="n">
+      <c r="AN118" t="n">
         <v>3</v>
       </c>
-      <c r="AM118" t="n">
+      <c r="AO118" t="n">
         <v>2</v>
       </c>
-      <c r="AN118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO118" t="n">
+      <c r="AP118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15832,33 +16544,39 @@
         <v>1.381818181818182</v>
       </c>
       <c r="AF119" t="n">
+        <v>380</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>167</v>
+      </c>
+      <c r="AH119" t="n">
         <v>0.01197604790419162</v>
       </c>
-      <c r="AG119" t="n">
+      <c r="AI119" t="n">
         <v>0.5029940119760479</v>
       </c>
-      <c r="AH119" t="n">
+      <c r="AJ119" t="n">
         <v>2</v>
       </c>
-      <c r="AI119" t="n">
+      <c r="AK119" t="n">
         <v>0.5389221556886228</v>
       </c>
-      <c r="AJ119" t="n">
+      <c r="AL119" t="n">
         <v>0.4222222222222222</v>
       </c>
-      <c r="AK119" t="n">
+      <c r="AM119" t="n">
         <v>1.253333333333333</v>
       </c>
-      <c r="AL119" t="n">
+      <c r="AN119" t="n">
         <v>2</v>
       </c>
-      <c r="AM119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN119" t="n">
-        <v>1</v>
-      </c>
       <c r="AO119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15961,33 +16679,39 @@
         <v>1.393518518518519</v>
       </c>
       <c r="AF120" t="n">
+        <v>602</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>258</v>
+      </c>
+      <c r="AH120" t="n">
         <v>0.007751937984496124</v>
       </c>
-      <c r="AG120" t="n">
+      <c r="AI120" t="n">
         <v>0.5426356589147286</v>
       </c>
-      <c r="AH120" t="n">
+      <c r="AJ120" t="n">
         <v>2</v>
       </c>
-      <c r="AI120" t="n">
+      <c r="AK120" t="n">
         <v>0.375968992248062</v>
       </c>
-      <c r="AJ120" t="n">
+      <c r="AL120" t="n">
         <v>0.4432989690721649</v>
       </c>
-      <c r="AK120" t="n">
+      <c r="AM120" t="n">
         <v>1.254658385093168</v>
       </c>
-      <c r="AL120" t="n">
+      <c r="AN120" t="n">
         <v>2</v>
       </c>
-      <c r="AM120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>1</v>
-      </c>
       <c r="AO120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16090,33 +16814,39 @@
         <v>1.451612903225806</v>
       </c>
       <c r="AF121" t="n">
+        <v>495</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>203</v>
+      </c>
+      <c r="AH121" t="n">
         <v>0.009852216748768473</v>
       </c>
-      <c r="AG121" t="n">
+      <c r="AI121" t="n">
         <v>0.6108374384236454</v>
       </c>
-      <c r="AH121" t="n">
+      <c r="AJ121" t="n">
         <v>2</v>
       </c>
-      <c r="AI121" t="n">
+      <c r="AK121" t="n">
         <v>0.3251231527093596</v>
       </c>
-      <c r="AJ121" t="n">
+      <c r="AL121" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK121" t="n">
+      <c r="AM121" t="n">
         <v>1.289256198347107</v>
       </c>
-      <c r="AL121" t="n">
+      <c r="AN121" t="n">
         <v>2</v>
       </c>
-      <c r="AM121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>1</v>
-      </c>
       <c r="AO121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16219,33 +16949,39 @@
         <v>1.407547169811321</v>
       </c>
       <c r="AF122" t="n">
+        <v>373</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH122" t="n">
         <v>0.01324503311258278</v>
       </c>
-      <c r="AG122" t="n">
+      <c r="AI122" t="n">
         <v>0.5496688741721855</v>
       </c>
-      <c r="AH122" t="n">
+      <c r="AJ122" t="n">
         <v>2</v>
       </c>
-      <c r="AI122" t="n">
+      <c r="AK122" t="n">
         <v>0.4635761589403973</v>
       </c>
-      <c r="AJ122" t="n">
+      <c r="AL122" t="n">
         <v>0.4428571428571428</v>
       </c>
-      <c r="AK122" t="n">
+      <c r="AM122" t="n">
         <v>1.3046875</v>
       </c>
-      <c r="AL122" t="n">
+      <c r="AN122" t="n">
         <v>2</v>
       </c>
-      <c r="AM122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>1</v>
-      </c>
       <c r="AO122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16348,33 +17084,39 @@
         <v>1.484732824427481</v>
       </c>
       <c r="AF123" t="n">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="AG123" t="n">
+        <v>174</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI123" t="n">
         <v>0.5862068965517241</v>
       </c>
-      <c r="AH123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI123" t="n">
+      <c r="AJ123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK123" t="n">
         <v>0.2528735632183908</v>
       </c>
-      <c r="AJ123" t="n">
+      <c r="AL123" t="n">
         <v>0.6590909090909091</v>
       </c>
-      <c r="AK123" t="n">
+      <c r="AM123" t="n">
         <v>1.575757575757576</v>
       </c>
-      <c r="AL123" t="n">
+      <c r="AN123" t="n">
         <v>2</v>
       </c>
-      <c r="AM123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>1</v>
-      </c>
       <c r="AO123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16477,33 +17219,39 @@
         <v>1.215415019762846</v>
       </c>
       <c r="AF124" t="n">
+        <v>615</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>347</v>
+      </c>
+      <c r="AH124" t="n">
         <v>0.008645533141210375</v>
       </c>
-      <c r="AG124" t="n">
+      <c r="AI124" t="n">
         <v>0.3602305475504323</v>
       </c>
-      <c r="AH124" t="n">
+      <c r="AJ124" t="n">
         <v>2</v>
       </c>
-      <c r="AI124" t="n">
+      <c r="AK124" t="n">
         <v>0.3948126801152738</v>
       </c>
-      <c r="AJ124" t="n">
+      <c r="AL124" t="n">
         <v>0.2554744525547445</v>
       </c>
-      <c r="AK124" t="n">
+      <c r="AM124" t="n">
         <v>1.031914893617021</v>
       </c>
-      <c r="AL124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM124" t="n">
-        <v>0</v>
-      </c>
       <c r="AN124" t="n">
         <v>1</v>
       </c>
       <c r="AO124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16606,33 +17354,39 @@
         <v>1.312138728323699</v>
       </c>
       <c r="AF125" t="n">
+        <v>681</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>339</v>
+      </c>
+      <c r="AH125" t="n">
         <v>0.002949852507374631</v>
       </c>
-      <c r="AG125" t="n">
+      <c r="AI125" t="n">
         <v>0.4572271386430679</v>
       </c>
-      <c r="AH125" t="n">
+      <c r="AJ125" t="n">
         <v>3</v>
       </c>
-      <c r="AI125" t="n">
+      <c r="AK125" t="n">
         <v>0.2595870206489675</v>
       </c>
-      <c r="AJ125" t="n">
+      <c r="AL125" t="n">
         <v>0.4090909090909091</v>
       </c>
-      <c r="AK125" t="n">
+      <c r="AM125" t="n">
         <v>1.290540540540541</v>
       </c>
-      <c r="AL125" t="n">
+      <c r="AN125" t="n">
         <v>4</v>
       </c>
-      <c r="AM125" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>1</v>
-      </c>
       <c r="AO125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16735,33 +17489,39 @@
         <v>1.378172588832487</v>
       </c>
       <c r="AF126" t="n">
+        <v>543</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>244</v>
+      </c>
+      <c r="AH126" t="n">
         <v>0.00819672131147541</v>
       </c>
-      <c r="AG126" t="n">
+      <c r="AI126" t="n">
         <v>0.4754098360655737</v>
       </c>
-      <c r="AH126" t="n">
+      <c r="AJ126" t="n">
         <v>3</v>
       </c>
-      <c r="AI126" t="n">
+      <c r="AK126" t="n">
         <v>0.4508196721311475</v>
       </c>
-      <c r="AJ126" t="n">
+      <c r="AL126" t="n">
         <v>0.4181818181818182</v>
       </c>
-      <c r="AK126" t="n">
+      <c r="AM126" t="n">
         <v>1.317647058823529</v>
       </c>
-      <c r="AL126" t="n">
+      <c r="AN126" t="n">
         <v>2</v>
       </c>
-      <c r="AM126" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN126" t="n">
-        <v>1</v>
-      </c>
       <c r="AO126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16864,33 +17624,39 @@
         <v>1.339434276206323</v>
       </c>
       <c r="AF127" t="n">
+        <v>805</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>382</v>
+      </c>
+      <c r="AH127" t="n">
         <v>0.005235602094240838</v>
       </c>
-      <c r="AG127" t="n">
+      <c r="AI127" t="n">
         <v>0.4581151832460733</v>
       </c>
-      <c r="AH127" t="n">
+      <c r="AJ127" t="n">
         <v>4</v>
       </c>
-      <c r="AI127" t="n">
+      <c r="AK127" t="n">
         <v>0.243455497382199</v>
       </c>
-      <c r="AJ127" t="n">
+      <c r="AL127" t="n">
         <v>0.3870967741935484</v>
       </c>
-      <c r="AK127" t="n">
+      <c r="AM127" t="n">
         <v>1.264516129032258</v>
       </c>
-      <c r="AL127" t="n">
+      <c r="AN127" t="n">
         <v>4</v>
       </c>
-      <c r="AM127" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN127" t="n">
-        <v>1</v>
-      </c>
       <c r="AO127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16993,33 +17759,39 @@
         <v>1.524822695035461</v>
       </c>
       <c r="AF128" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AG128" t="n">
+        <v>148</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI128" t="n">
         <v>0.6283783783783784</v>
       </c>
-      <c r="AH128" t="n">
+      <c r="AJ128" t="n">
         <v>2</v>
       </c>
-      <c r="AI128" t="n">
+      <c r="AK128" t="n">
         <v>0.4459459459459459</v>
       </c>
-      <c r="AJ128" t="n">
+      <c r="AL128" t="n">
         <v>0.5757575757575758</v>
       </c>
-      <c r="AK128" t="n">
+      <c r="AM128" t="n">
         <v>1.482014388489209</v>
       </c>
-      <c r="AL128" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM128" t="n">
-        <v>1</v>
-      </c>
       <c r="AN128" t="n">
         <v>1</v>
       </c>
       <c r="AO128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17122,33 +17894,39 @@
         <v>1.454787234042553</v>
       </c>
       <c r="AF129" t="n">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="AG129" t="n">
+        <v>219</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI129" t="n">
         <v>0.5707762557077626</v>
       </c>
-      <c r="AH129" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI129" t="n">
+      <c r="AJ129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK129" t="n">
         <v>0.3926940639269406</v>
       </c>
-      <c r="AJ129" t="n">
+      <c r="AL129" t="n">
         <v>0.4883720930232558</v>
       </c>
-      <c r="AK129" t="n">
+      <c r="AM129" t="n">
         <v>1.363057324840764</v>
       </c>
-      <c r="AL129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM129" t="n">
-        <v>0</v>
-      </c>
       <c r="AN129" t="n">
         <v>0</v>
       </c>
       <c r="AO129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17251,33 +18029,39 @@
         <v>1.520504731861199</v>
       </c>
       <c r="AF130" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="AG130" t="n">
+        <v>187</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI130" t="n">
         <v>0.6203208556149733</v>
       </c>
-      <c r="AH130" t="n">
+      <c r="AJ130" t="n">
         <v>2</v>
       </c>
-      <c r="AI130" t="n">
+      <c r="AK130" t="n">
         <v>0.3262032085561498</v>
       </c>
-      <c r="AJ130" t="n">
+      <c r="AL130" t="n">
         <v>0.6885245901639344</v>
       </c>
-      <c r="AK130" t="n">
+      <c r="AM130" t="n">
         <v>1.611111111111111</v>
       </c>
-      <c r="AL130" t="n">
+      <c r="AN130" t="n">
         <v>3</v>
       </c>
-      <c r="AM130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>1</v>
-      </c>
       <c r="AO130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17380,33 +18164,39 @@
         <v>1.293981481481481</v>
       </c>
       <c r="AF131" t="n">
+        <v>559</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>276</v>
+      </c>
+      <c r="AH131" t="n">
         <v>0.003623188405797101</v>
       </c>
-      <c r="AG131" t="n">
+      <c r="AI131" t="n">
         <v>0.4239130434782609</v>
       </c>
-      <c r="AH131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI131" t="n">
+      <c r="AJ131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK131" t="n">
         <v>0.4021739130434783</v>
       </c>
-      <c r="AJ131" t="n">
+      <c r="AL131" t="n">
         <v>0.3513513513513514</v>
       </c>
-      <c r="AK131" t="n">
+      <c r="AM131" t="n">
         <v>1.18562874251497</v>
       </c>
-      <c r="AL131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM131" t="n">
-        <v>1</v>
-      </c>
       <c r="AN131" t="n">
         <v>1</v>
       </c>
       <c r="AO131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17509,33 +18299,39 @@
         <v>1.377281947261663</v>
       </c>
       <c r="AF132" t="n">
+        <v>679</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>315</v>
+      </c>
+      <c r="AH132" t="n">
         <v>0.006349206349206349</v>
       </c>
-      <c r="AG132" t="n">
+      <c r="AI132" t="n">
         <v>0.4761904761904762</v>
       </c>
-      <c r="AH132" t="n">
+      <c r="AJ132" t="n">
         <v>3</v>
       </c>
-      <c r="AI132" t="n">
+      <c r="AK132" t="n">
         <v>0.2698412698412698</v>
       </c>
-      <c r="AJ132" t="n">
+      <c r="AL132" t="n">
         <v>0.3647058823529412</v>
       </c>
-      <c r="AK132" t="n">
+      <c r="AM132" t="n">
         <v>1.220472440944882</v>
       </c>
-      <c r="AL132" t="n">
+      <c r="AN132" t="n">
         <v>4</v>
       </c>
-      <c r="AM132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>1</v>
-      </c>
       <c r="AO132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17638,33 +18434,39 @@
         <v>1.211180124223602</v>
       </c>
       <c r="AF133" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AG133" t="n">
+        <v>172</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI133" t="n">
         <v>0.4418604651162791</v>
       </c>
-      <c r="AH133" t="n">
+      <c r="AJ133" t="n">
         <v>3</v>
       </c>
-      <c r="AI133" t="n">
+      <c r="AK133" t="n">
         <v>0.3779069767441861</v>
       </c>
-      <c r="AJ133" t="n">
+      <c r="AL133" t="n">
         <v>0.4769230769230769</v>
       </c>
-      <c r="AK133" t="n">
+      <c r="AM133" t="n">
         <v>1.209302325581395</v>
       </c>
-      <c r="AL133" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM133" t="n">
-        <v>1</v>
-      </c>
       <c r="AN133" t="n">
         <v>1</v>
       </c>
       <c r="AO133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17767,33 +18569,39 @@
         <v>1.392059553349876</v>
       </c>
       <c r="AF134" t="n">
+        <v>561</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>255</v>
+      </c>
+      <c r="AH134" t="n">
         <v>0.01176470588235294</v>
       </c>
-      <c r="AG134" t="n">
+      <c r="AI134" t="n">
         <v>0.5254901960784314</v>
       </c>
-      <c r="AH134" t="n">
+      <c r="AJ134" t="n">
         <v>2</v>
       </c>
-      <c r="AI134" t="n">
+      <c r="AK134" t="n">
         <v>0.3490196078431372</v>
       </c>
-      <c r="AJ134" t="n">
+      <c r="AL134" t="n">
         <v>0.3932584269662922</v>
       </c>
-      <c r="AK134" t="n">
+      <c r="AM134" t="n">
         <v>1.251851851851852</v>
       </c>
-      <c r="AL134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM134" t="n">
-        <v>0</v>
-      </c>
       <c r="AN134" t="n">
         <v>0</v>
       </c>
       <c r="AO134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17896,33 +18704,39 @@
         <v>1.416393442622951</v>
       </c>
       <c r="AF135" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="AG135" t="n">
+        <v>163</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI135" t="n">
         <v>0.50920245398773</v>
       </c>
-      <c r="AH135" t="n">
+      <c r="AJ135" t="n">
         <v>2</v>
       </c>
-      <c r="AI135" t="n">
+      <c r="AK135" t="n">
         <v>0.3742331288343558</v>
       </c>
-      <c r="AJ135" t="n">
+      <c r="AL135" t="n">
         <v>0.4262295081967213</v>
       </c>
-      <c r="AK135" t="n">
+      <c r="AM135" t="n">
         <v>1.380952380952381</v>
       </c>
-      <c r="AL135" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM135" t="n">
-        <v>0</v>
-      </c>
       <c r="AN135" t="n">
         <v>1</v>
       </c>
       <c r="AO135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18025,33 +18839,39 @@
         <v>1.389705882352941</v>
       </c>
       <c r="AF136" t="n">
+        <v>567</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>266</v>
+      </c>
+      <c r="AH136" t="n">
         <v>0.0112781954887218</v>
       </c>
-      <c r="AG136" t="n">
+      <c r="AI136" t="n">
         <v>0.5526315789473685</v>
       </c>
-      <c r="AH136" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI136" t="n">
+      <c r="AJ136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK136" t="n">
         <v>0.3082706766917293</v>
       </c>
-      <c r="AJ136" t="n">
+      <c r="AL136" t="n">
         <v>0.5121951219512195</v>
       </c>
-      <c r="AK136" t="n">
+      <c r="AM136" t="n">
         <v>1.343511450381679</v>
       </c>
-      <c r="AL136" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM136" t="n">
-        <v>0</v>
-      </c>
       <c r="AN136" t="n">
         <v>1</v>
       </c>
       <c r="AO136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18154,33 +18974,39 @@
         <v>1.448497854077253</v>
       </c>
       <c r="AF137" t="n">
+        <v>675</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>299</v>
+      </c>
+      <c r="AH137" t="n">
         <v>0.006688963210702341</v>
       </c>
-      <c r="AG137" t="n">
+      <c r="AI137" t="n">
         <v>0.5150501672240803</v>
       </c>
-      <c r="AH137" t="n">
+      <c r="AJ137" t="n">
         <v>4</v>
       </c>
-      <c r="AI137" t="n">
+      <c r="AK137" t="n">
         <v>0.3779264214046823</v>
       </c>
-      <c r="AJ137" t="n">
+      <c r="AL137" t="n">
         <v>0.4778761061946903</v>
       </c>
-      <c r="AK137" t="n">
+      <c r="AM137" t="n">
         <v>1.409638554216867</v>
       </c>
-      <c r="AL137" t="n">
+      <c r="AN137" t="n">
         <v>3</v>
       </c>
-      <c r="AM137" t="n">
+      <c r="AO137" t="n">
         <v>2</v>
       </c>
-      <c r="AN137" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO137" t="n">
+      <c r="AP137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18283,33 +19109,39 @@
         <v>1.478365384615385</v>
       </c>
       <c r="AF138" t="n">
+        <v>615</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>225</v>
+      </c>
+      <c r="AH138" t="n">
         <v>0.004444444444444444</v>
       </c>
-      <c r="AG138" t="n">
+      <c r="AI138" t="n">
         <v>0.5911111111111111</v>
       </c>
-      <c r="AH138" t="n">
+      <c r="AJ138" t="n">
         <v>4</v>
       </c>
-      <c r="AI138" t="n">
+      <c r="AK138" t="n">
         <v>0.4044444444444444</v>
       </c>
-      <c r="AJ138" t="n">
+      <c r="AL138" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="AK138" t="n">
+      <c r="AM138" t="n">
         <v>1.470588235294118</v>
       </c>
-      <c r="AL138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM138" t="n">
-        <v>1</v>
-      </c>
       <c r="AN138" t="n">
         <v>1</v>
       </c>
       <c r="AO138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18412,33 +19244,39 @@
         <v>1.48014440433213</v>
       </c>
       <c r="AF139" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AG139" t="n">
+        <v>148</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI139" t="n">
         <v>0.5540540540540541</v>
       </c>
-      <c r="AH139" t="n">
+      <c r="AJ139" t="n">
         <v>2</v>
       </c>
-      <c r="AI139" t="n">
+      <c r="AK139" t="n">
         <v>0.4662162162162162</v>
       </c>
-      <c r="AJ139" t="n">
+      <c r="AL139" t="n">
         <v>0.391304347826087</v>
       </c>
-      <c r="AK139" t="n">
+      <c r="AM139" t="n">
         <v>1.291338582677165</v>
       </c>
-      <c r="AL139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM139" t="n">
-        <v>0</v>
-      </c>
       <c r="AN139" t="n">
         <v>0</v>
       </c>
       <c r="AO139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18541,33 +19379,39 @@
         <v>1.59656652360515</v>
       </c>
       <c r="AF140" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="AG140" t="n">
+        <v>115</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI140" t="n">
         <v>0.6782608695652174</v>
       </c>
-      <c r="AH140" t="n">
+      <c r="AJ140" t="n">
         <v>3</v>
       </c>
-      <c r="AI140" t="n">
+      <c r="AK140" t="n">
         <v>0.2695652173913043</v>
       </c>
-      <c r="AJ140" t="n">
+      <c r="AL140" t="n">
         <v>0.5806451612903226</v>
       </c>
-      <c r="AK140" t="n">
+      <c r="AM140" t="n">
         <v>1.483333333333333</v>
       </c>
-      <c r="AL140" t="n">
+      <c r="AN140" t="n">
         <v>2</v>
       </c>
-      <c r="AM140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN140" t="n">
-        <v>1</v>
-      </c>
       <c r="AO140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18670,33 +19514,39 @@
         <v>1.321100917431193</v>
       </c>
       <c r="AF141" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="AG141" t="n">
+        <v>230</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI141" t="n">
         <v>0.4782608695652174</v>
       </c>
-      <c r="AH141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI141" t="n">
+      <c r="AJ141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK141" t="n">
         <v>0.1130434782608696</v>
       </c>
-      <c r="AJ141" t="n">
+      <c r="AL141" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="AK141" t="n">
+      <c r="AM141" t="n">
         <v>1.054054054054054</v>
       </c>
-      <c r="AL141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM141" t="n">
-        <v>0</v>
-      </c>
       <c r="AN141" t="n">
         <v>1</v>
       </c>
       <c r="AO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18799,33 +19649,39 @@
         <v>0.7692307692307693</v>
       </c>
       <c r="AF142" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG142" t="n">
-        <v>0.1666666666666667</v>
+        <v>12</v>
       </c>
       <c r="AH142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI142" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="AJ142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK142" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM142" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM142" t="n">
-        <v>0</v>
-      </c>
       <c r="AN142" t="n">
         <v>0</v>
       </c>
       <c r="AO142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18928,33 +19784,39 @@
         <v>1.453731343283582</v>
       </c>
       <c r="AF143" t="n">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="AG143" t="n">
+        <v>234</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI143" t="n">
         <v>0.5811965811965812</v>
       </c>
-      <c r="AH143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI143" t="n">
+      <c r="AJ143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK143" t="n">
         <v>0.2478632478632479</v>
       </c>
-      <c r="AJ143" t="n">
+      <c r="AL143" t="n">
         <v>0.4655172413793103</v>
       </c>
-      <c r="AK143" t="n">
+      <c r="AM143" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AL143" t="n">
+      <c r="AN143" t="n">
         <v>2</v>
       </c>
-      <c r="AM143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>1</v>
-      </c>
       <c r="AO143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19057,33 +19919,39 @@
         <v>1.331683168316832</v>
       </c>
       <c r="AF144" t="n">
+        <v>538</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>259</v>
+      </c>
+      <c r="AH144" t="n">
         <v>0.003861003861003861</v>
       </c>
-      <c r="AG144" t="n">
+      <c r="AI144" t="n">
         <v>0.4749034749034749</v>
       </c>
-      <c r="AH144" t="n">
+      <c r="AJ144" t="n">
         <v>2</v>
       </c>
-      <c r="AI144" t="n">
+      <c r="AK144" t="n">
         <v>0.5637065637065637</v>
       </c>
-      <c r="AJ144" t="n">
+      <c r="AL144" t="n">
         <v>0.5136986301369864</v>
       </c>
-      <c r="AK144" t="n">
+      <c r="AM144" t="n">
         <v>1.425531914893617</v>
       </c>
-      <c r="AL144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM144" t="n">
-        <v>1</v>
-      </c>
       <c r="AN144" t="n">
         <v>1</v>
       </c>
       <c r="AO144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19186,33 +20054,39 @@
         <v>1.254320987654321</v>
       </c>
       <c r="AF145" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="AG145" t="n">
+        <v>283</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI145" t="n">
         <v>0.4275618374558304</v>
       </c>
-      <c r="AH145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI145" t="n">
+      <c r="AJ145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK145" t="n">
         <v>0.3710247349823322</v>
       </c>
-      <c r="AJ145" t="n">
+      <c r="AL145" t="n">
         <v>0.4571428571428571</v>
       </c>
-      <c r="AK145" t="n">
+      <c r="AM145" t="n">
         <v>1.295597484276729</v>
       </c>
-      <c r="AL145" t="n">
+      <c r="AN145" t="n">
         <v>3</v>
       </c>
-      <c r="AM145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN145" t="n">
-        <v>1</v>
-      </c>
       <c r="AO145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19315,33 +20189,39 @@
         <v>0.75</v>
       </c>
       <c r="AF146" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI146" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="AH146" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI146" t="n">
+      <c r="AJ146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK146" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ146" t="n">
+      <c r="AL146" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AK146" t="n">
+      <c r="AM146" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM146" t="n">
-        <v>0</v>
-      </c>
       <c r="AN146" t="n">
         <v>0</v>
       </c>
       <c r="AO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19444,33 +20324,39 @@
         <v>1.410579345088161</v>
       </c>
       <c r="AF147" t="n">
+        <v>560</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>273</v>
+      </c>
+      <c r="AH147" t="n">
         <v>0.003663003663003663</v>
       </c>
-      <c r="AG147" t="n">
+      <c r="AI147" t="n">
         <v>0.5641025641025641</v>
       </c>
-      <c r="AH147" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI147" t="n">
+      <c r="AJ147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK147" t="n">
         <v>0.2967032967032967</v>
       </c>
-      <c r="AJ147" t="n">
+      <c r="AL147" t="n">
         <v>0.5802469135802469</v>
       </c>
-      <c r="AK147" t="n">
+      <c r="AM147" t="n">
         <v>1.436507936507937</v>
       </c>
-      <c r="AL147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>0</v>
-      </c>
       <c r="AN147" t="n">
         <v>0</v>
       </c>
       <c r="AO147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19573,33 +20459,39 @@
         <v>1.557377049180328</v>
       </c>
       <c r="AF148" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AG148" t="n">
+        <v>141</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI148" t="n">
         <v>0.6382978723404256</v>
       </c>
-      <c r="AH148" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI148" t="n">
+      <c r="AJ148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK148" t="n">
         <v>0.375886524822695</v>
       </c>
-      <c r="AJ148" t="n">
+      <c r="AL148" t="n">
         <v>0.6037735849056604</v>
       </c>
-      <c r="AK148" t="n">
+      <c r="AM148" t="n">
         <v>1.573033707865169</v>
       </c>
-      <c r="AL148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM148" t="n">
-        <v>0</v>
-      </c>
       <c r="AN148" t="n">
         <v>0</v>
       </c>
       <c r="AO148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19702,33 +20594,39 @@
         <v>1.416216216216216</v>
       </c>
       <c r="AF149" t="n">
+        <v>524</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>255</v>
+      </c>
+      <c r="AH149" t="n">
         <v>0.00392156862745098</v>
       </c>
-      <c r="AG149" t="n">
+      <c r="AI149" t="n">
         <v>0.5490196078431373</v>
       </c>
-      <c r="AH149" t="n">
+      <c r="AJ149" t="n">
         <v>2</v>
       </c>
-      <c r="AI149" t="n">
+      <c r="AK149" t="n">
         <v>0.5450980392156862</v>
       </c>
-      <c r="AJ149" t="n">
+      <c r="AL149" t="n">
         <v>0.5827338129496403</v>
       </c>
-      <c r="AK149" t="n">
+      <c r="AM149" t="n">
         <v>1.476851851851852</v>
       </c>
-      <c r="AL149" t="n">
+      <c r="AN149" t="n">
         <v>3</v>
       </c>
-      <c r="AM149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN149" t="n">
-        <v>1</v>
-      </c>
       <c r="AO149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19831,33 +20729,39 @@
         <v>1.380813953488372</v>
       </c>
       <c r="AF150" t="n">
+        <v>475</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>216</v>
+      </c>
+      <c r="AH150" t="n">
         <v>0.004629629629629629</v>
       </c>
-      <c r="AG150" t="n">
+      <c r="AI150" t="n">
         <v>0.5</v>
       </c>
-      <c r="AH150" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI150" t="n">
+      <c r="AJ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK150" t="n">
         <v>0.1990740740740741</v>
       </c>
-      <c r="AJ150" t="n">
+      <c r="AL150" t="n">
         <v>0.3720930232558139</v>
       </c>
-      <c r="AK150" t="n">
+      <c r="AM150" t="n">
         <v>1.257142857142857</v>
       </c>
-      <c r="AL150" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM150" t="n">
-        <v>0</v>
-      </c>
       <c r="AN150" t="n">
         <v>1</v>
       </c>
       <c r="AO150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19960,33 +20864,39 @@
         <v>1.480392156862745</v>
       </c>
       <c r="AF151" t="n">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="AG151" t="n">
+        <v>271</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI151" t="n">
         <v>0.5424354243542435</v>
       </c>
-      <c r="AH151" t="n">
+      <c r="AJ151" t="n">
         <v>2</v>
       </c>
-      <c r="AI151" t="n">
+      <c r="AK151" t="n">
         <v>0.4280442804428044</v>
       </c>
-      <c r="AJ151" t="n">
+      <c r="AL151" t="n">
         <v>0.5172413793103449</v>
       </c>
-      <c r="AK151" t="n">
+      <c r="AM151" t="n">
         <v>1.492063492063492</v>
       </c>
-      <c r="AL151" t="n">
+      <c r="AN151" t="n">
         <v>2</v>
       </c>
-      <c r="AM151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN151" t="n">
-        <v>1</v>
-      </c>
       <c r="AO151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20089,33 +20999,39 @@
         <v>1.192066805845512</v>
       </c>
       <c r="AF152" t="n">
+        <v>571</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>365</v>
+      </c>
+      <c r="AH152" t="n">
         <v>0.00273972602739726</v>
       </c>
-      <c r="AG152" t="n">
+      <c r="AI152" t="n">
         <v>0.4219178082191781</v>
       </c>
-      <c r="AH152" t="n">
+      <c r="AJ152" t="n">
         <v>2</v>
       </c>
-      <c r="AI152" t="n">
+      <c r="AK152" t="n">
         <v>0.2821917808219178</v>
       </c>
-      <c r="AJ152" t="n">
+      <c r="AL152" t="n">
         <v>0.4854368932038835</v>
       </c>
-      <c r="AK152" t="n">
+      <c r="AM152" t="n">
         <v>1.3125</v>
       </c>
-      <c r="AL152" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM152" t="n">
-        <v>0</v>
-      </c>
       <c r="AN152" t="n">
         <v>1</v>
       </c>
       <c r="AO152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20218,33 +21134,39 @@
         <v>1.261111111111111</v>
       </c>
       <c r="AF153" t="n">
+        <v>454</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>258</v>
+      </c>
+      <c r="AH153" t="n">
         <v>0.003875968992248062</v>
       </c>
-      <c r="AG153" t="n">
+      <c r="AI153" t="n">
         <v>0.4418604651162791</v>
       </c>
-      <c r="AH153" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI153" t="n">
+      <c r="AJ153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK153" t="n">
         <v>0.2596899224806202</v>
       </c>
-      <c r="AJ153" t="n">
+      <c r="AL153" t="n">
         <v>0.3880597014925373</v>
       </c>
-      <c r="AK153" t="n">
+      <c r="AM153" t="n">
         <v>1.174757281553398</v>
       </c>
-      <c r="AL153" t="n">
+      <c r="AN153" t="n">
         <v>2</v>
       </c>
-      <c r="AM153" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN153" t="n">
-        <v>1</v>
-      </c>
       <c r="AO153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20347,33 +21269,39 @@
         <v>1.244215938303342</v>
       </c>
       <c r="AF154" t="n">
+        <v>484</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>281</v>
+      </c>
+      <c r="AH154" t="n">
         <v>0.02846975088967971</v>
       </c>
-      <c r="AG154" t="n">
+      <c r="AI154" t="n">
         <v>0.4163701067615658</v>
       </c>
-      <c r="AH154" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI154" t="n">
+      <c r="AJ154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK154" t="n">
         <v>0.1814946619217082</v>
       </c>
-      <c r="AJ154" t="n">
+      <c r="AL154" t="n">
         <v>0.392156862745098</v>
       </c>
-      <c r="AK154" t="n">
+      <c r="AM154" t="n">
         <v>1.144927536231884</v>
       </c>
-      <c r="AL154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM154" t="n">
-        <v>0</v>
-      </c>
       <c r="AN154" t="n">
         <v>0</v>
       </c>
       <c r="AO154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20476,33 +21404,39 @@
         <v>1.420289855072464</v>
       </c>
       <c r="AF155" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="AG155" t="n">
+        <v>197</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI155" t="n">
         <v>0.5532994923857868</v>
       </c>
-      <c r="AH155" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI155" t="n">
+      <c r="AJ155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK155" t="n">
         <v>0.4822335025380711</v>
       </c>
-      <c r="AJ155" t="n">
+      <c r="AL155" t="n">
         <v>0.6421052631578947</v>
       </c>
-      <c r="AK155" t="n">
+      <c r="AM155" t="n">
         <v>1.527777777777778</v>
       </c>
-      <c r="AL155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM155" t="n">
-        <v>0</v>
-      </c>
       <c r="AN155" t="n">
         <v>0</v>
       </c>
       <c r="AO155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20605,33 +21539,39 @@
         <v>1.348242811501597</v>
       </c>
       <c r="AF156" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="AG156" t="n">
+        <v>211</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI156" t="n">
         <v>0.4644549763033176</v>
       </c>
-      <c r="AH156" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI156" t="n">
+      <c r="AJ156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK156" t="n">
         <v>0.2417061611374408</v>
       </c>
-      <c r="AJ156" t="n">
+      <c r="AL156" t="n">
         <v>0.3725490196078431</v>
       </c>
-      <c r="AK156" t="n">
+      <c r="AM156" t="n">
         <v>1.214285714285714</v>
       </c>
-      <c r="AL156" t="n">
+      <c r="AN156" t="n">
         <v>2</v>
       </c>
-      <c r="AM156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN156" t="n">
-        <v>1</v>
-      </c>
       <c r="AO156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20734,33 +21674,39 @@
         <v>1.255506607929515</v>
       </c>
       <c r="AF157" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AG157" t="n">
+        <v>312</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI157" t="n">
         <v>0.4134615384615384</v>
       </c>
-      <c r="AH157" t="n">
+      <c r="AJ157" t="n">
         <v>2</v>
       </c>
-      <c r="AI157" t="n">
+      <c r="AK157" t="n">
         <v>0.5608974358974359</v>
       </c>
-      <c r="AJ157" t="n">
+      <c r="AL157" t="n">
         <v>0.3771428571428572</v>
       </c>
-      <c r="AK157" t="n">
+      <c r="AM157" t="n">
         <v>1.223484848484848</v>
       </c>
-      <c r="AL157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM157" t="n">
-        <v>0</v>
-      </c>
       <c r="AN157" t="n">
         <v>0</v>
       </c>
       <c r="AO157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20863,33 +21809,39 @@
         <v>1.330601092896175</v>
       </c>
       <c r="AF158" t="n">
+        <v>487</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>257</v>
+      </c>
+      <c r="AH158" t="n">
         <v>0.007782101167315175</v>
       </c>
-      <c r="AG158" t="n">
+      <c r="AI158" t="n">
         <v>0.490272373540856</v>
       </c>
-      <c r="AH158" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI158" t="n">
+      <c r="AJ158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK158" t="n">
         <v>0.3229571984435798</v>
       </c>
-      <c r="AJ158" t="n">
+      <c r="AL158" t="n">
         <v>0.4698795180722892</v>
       </c>
-      <c r="AK158" t="n">
+      <c r="AM158" t="n">
         <v>1.26890756302521</v>
       </c>
-      <c r="AL158" t="n">
+      <c r="AN158" t="n">
         <v>2</v>
       </c>
-      <c r="AM158" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN158" t="n">
-        <v>1</v>
-      </c>
       <c r="AO158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ158" t="n">
         <v>1</v>
       </c>
     </row>
